--- a/Excel/035-portfolio.xlsx
+++ b/Excel/035-portfolio.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,43 +560,43 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ASK</t>
+          <t>ASP</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44973</v>
+        <v>44627</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>30,000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>26.25</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>7.6</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>157,500.00</t>
+          <t>114,000.00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>45,600.00</t>
+          <t>69,000.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-111,900.00</t>
+          <t>-45,000.00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-71.05</t>
+          <t>-39.47</t>
         </is>
       </c>
     </row>
@@ -608,48 +608,48 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ASP</t>
+          <t>IVL</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44627</v>
+        <v>44802</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>30,000</t>
+          <t>7,200</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>22.1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>114,000.00</t>
+          <t>288,000.00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>69,000.00</t>
+          <t>159,120.00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-45,000.00</t>
+          <t>-128,880.00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-39.47</t>
+          <t>-44.75</t>
         </is>
       </c>
     </row>
@@ -666,43 +666,43 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>IVL</t>
+          <t>ORI</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44802</v>
+        <v>44658</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7,200</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>23</v>
+        <v>3.14</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>288,000.00</t>
+          <t>549,000.00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>165,600.00</t>
+          <t>188,400.00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-122,400.00</t>
+          <t>-360,600.00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-42.50</t>
+          <t>-65.68</t>
         </is>
       </c>
     </row>
@@ -714,48 +714,48 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>PTTGC</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44658</v>
+        <v>44272</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>64.75</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>19.2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>549,000.00</t>
+          <t>388,500.00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>174,000.00</t>
+          <t>115,200.00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-375,000.00</t>
+          <t>-273,300.00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-68.31</t>
+          <t>-70.35</t>
         </is>
       </c>
     </row>
@@ -767,48 +767,48 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PTTGC</t>
+          <t>SCC</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44272</v>
+        <v>44459</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>600</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>64.75</t>
+          <t>405.00</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>19.4</v>
+        <v>143</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>388,500.00</t>
+          <t>243,000.00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>116,400.00</t>
+          <t>85,800.00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-272,100.00</t>
+          <t>-157,200.00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-70.04</t>
+          <t>-64.69</t>
         </is>
       </c>
     </row>
@@ -820,48 +820,48 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SCC</t>
+          <t>SINGER</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44459</v>
+        <v>44945</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>405.00</t>
+          <t>24.80</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>145.5</v>
+        <v>6</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>243,000.00</t>
+          <t>148,800.00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>87,300.00</t>
+          <t>36,000.00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-155,700.00</t>
+          <t>-112,800.00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-64.07</t>
+          <t>-75.81</t>
         </is>
       </c>
     </row>
@@ -873,48 +873,48 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SINGER</t>
+          <t>STA</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44945</v>
+        <v>44362</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>24.80</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.8</v>
+        <v>16.7</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>148,800.00</t>
+          <t>300,000.00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>34,800.00</t>
+          <t>167,000.00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-114,000.00</t>
+          <t>-133,000.00</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-76.61</t>
+          <t>-44.33</t>
         </is>
       </c>
     </row>
@@ -926,48 +926,48 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>STA</t>
+          <t>TMT</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44362</v>
+        <v>44424</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>36,000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>15.9</v>
+        <v>3</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>300,000.00</t>
+          <t>367,200.00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>159,000.00</t>
+          <t>108,000.00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-141,000.00</t>
+          <t>-259,200.00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-47.00</t>
+          <t>-70.59</t>
         </is>
       </c>
     </row>
@@ -984,96 +984,96 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TMT</t>
+          <t>TOA</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44424</v>
+        <v>45175</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>36,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.04</v>
+        <v>12.2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>367,200.00</t>
+          <t>26,000.00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>109,440.00</t>
+          <t>12,200.00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-257,760.00</t>
+          <t>-13,800.00</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-70.20</t>
+          <t>-53.08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TOA</t>
+          <t>AIMIRT</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45175</v>
+        <v>45155</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>12,500</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>10.90</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>12.3</v>
+        <v>10.7</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>26,000.00</t>
+          <t>136,250.00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>12,300.00</t>
+          <t>133,750.00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-13,700.00</t>
+          <t>-2,500.00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-52.69</t>
+          <t>-1.83</t>
         </is>
       </c>
     </row>
@@ -1085,48 +1085,48 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AIMIRT</t>
+          <t>CPNREIT</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45155</v>
+        <v>44789</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12,500</t>
+          <t>55,000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10.90</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>10.6</v>
+        <v>12.3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>136,250.00</t>
+          <t>990,000.00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>132,500.00</t>
+          <t>676,500.00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-3,750.00</t>
+          <t>-313,500.00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-2.75</t>
+          <t>-31.67</t>
         </is>
       </c>
     </row>
@@ -1138,48 +1138,48 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CPNREIT</t>
+          <t>DIF</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44789</v>
+        <v>44044</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>55,000</t>
+          <t>35,000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>13.90</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>12.1</v>
+        <v>8.1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>990,000.00</t>
+          <t>486,500.00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>665,500.00</t>
+          <t>283,500.00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-324,500.00</t>
+          <t>-203,000.00</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-32.78</t>
+          <t>-41.73</t>
         </is>
       </c>
     </row>
@@ -1191,48 +1191,48 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DIF</t>
+          <t>GVREIT</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44044</v>
+        <v>44797</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>35,000</t>
+          <t>75,000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>13.90</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>8.15</v>
+        <v>6.85</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>486,500.00</t>
+          <t>573,000.00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>285,250.00</t>
+          <t>513,750.00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-201,250.00</t>
+          <t>-59,250.00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>-41.37</t>
+          <t>-10.34</t>
         </is>
       </c>
     </row>
@@ -1244,48 +1244,48 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GVREIT</t>
+          <t>MCS</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44797</v>
+        <v>42633</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>75,000</t>
+          <t>81,000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>14.80</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>573,000.00</t>
+          <t>1,198,800.00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>502,500.00</t>
+          <t>550,800.00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-70,500.00</t>
+          <t>-648,000.00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>-12.30</t>
+          <t>-54.05</t>
         </is>
       </c>
     </row>
@@ -1297,48 +1297,48 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MCS</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>42633</v>
+        <v>44440</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>75,000</t>
+          <t>27,000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>15.40</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>6.45</v>
+        <v>4.86</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1,155,000.00</t>
+          <t>201,150.00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>483,750.00</t>
+          <t>131,220.00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-671,250.00</t>
+          <t>-69,930.00</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>-58.12</t>
+          <t>-34.77</t>
         </is>
       </c>
     </row>
@@ -1350,48 +1350,48 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>SENA</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44440</v>
+        <v>44649</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27,000</t>
+          <t>105,000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.8</v>
+        <v>2.22</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>201,150.00</t>
+          <t>470,400.00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>129,600.00</t>
+          <t>233,100.00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-71,550.00</t>
+          <t>-237,300.00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>-35.57</t>
+          <t>-50.45</t>
         </is>
       </c>
     </row>
@@ -1403,48 +1403,48 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SENA</t>
+          <t>TFFIF</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44649</v>
+        <v>45113</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>105,000</t>
+          <t>20,000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>6.4</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>470,400.00</t>
+          <t>150,000.00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>220,500.00</t>
+          <t>128,000.00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-249,900.00</t>
+          <t>-22,000.00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>-53.13</t>
+          <t>-14.67</t>
         </is>
       </c>
     </row>
@@ -1456,48 +1456,48 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TFFIF</t>
+          <t>WHAIR</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45113</v>
+        <v>44480</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>20,000</t>
+          <t>50,000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6.3</v>
+        <v>5.85</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>150,000.00</t>
+          <t>435,000.00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>126,000.00</t>
+          <t>292,500.00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-24,000.00</t>
+          <t>-142,500.00</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>-16.00</t>
+          <t>-32.76</t>
         </is>
       </c>
     </row>
@@ -1514,96 +1514,96 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>WHAIR</t>
+          <t>WHART</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44480</v>
+        <v>44566</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>50,000</t>
+          <t>20,000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>12.30</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6.25</v>
+        <v>10.2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>435,000.00</t>
+          <t>246,000.00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>312,500.00</t>
+          <t>204,000.00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-122,500.00</t>
+          <t>-42,000.00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>-28.16</t>
+          <t>-17.07</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>WHART</t>
+          <t>3BBIF</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44566</v>
+        <v>43237</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>20,000</t>
+          <t>120,000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>12.30</t>
+          <t>10.10</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>10.1</v>
+        <v>5.25</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>246,000.00</t>
+          <t>1,212,000.00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>202,000.00</t>
+          <t>630,000.00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-44,000.00</t>
+          <t>-582,000.00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>-17.89</t>
+          <t>-48.02</t>
         </is>
       </c>
     </row>
@@ -1615,48 +1615,48 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3BBIF</t>
+          <t>JMART</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>43237</v>
+        <v>44946</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>120,000</t>
+          <t>6,800</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10.10</t>
+          <t>33.00</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.35</v>
+        <v>10.3</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1,212,000.00</t>
+          <t>224,400.00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>642,000.00</t>
+          <t>70,040.00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-570,000.00</t>
+          <t>-154,360.00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>-47.03</t>
+          <t>-68.79</t>
         </is>
       </c>
     </row>
@@ -1668,48 +1668,48 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>JMART</t>
+          <t>JMT</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44946</v>
+        <v>44952</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6,800</t>
+          <t>4,200</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>55.50</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>9.949999999999999</v>
+        <v>13.9</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>224,400.00</t>
+          <t>233,100.00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>67,660.00</t>
+          <t>58,380.00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-156,740.00</t>
+          <t>-174,720.00</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>-69.85</t>
+          <t>-74.95</t>
         </is>
       </c>
     </row>
@@ -1721,101 +1721,101 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>JMT</t>
+          <t>KCE</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44952</v>
+        <v>44476</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4,200</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>55.50</t>
+          <t>77.25</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>13.4</v>
+        <v>21.2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>233,100.00</t>
+          <t>772,500.00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>56,280.00</t>
+          <t>212,000.00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-176,820.00</t>
+          <t>-560,500.00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-75.86</t>
+          <t>-72.56</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>KCE</t>
+          <t>AWC</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44476</v>
+        <v>45092</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>77.25</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>20.8</v>
+        <v>3.14</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>772,500.00</t>
+          <t>44,640.00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>208,000.00</t>
+          <t>28,260.00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-564,500.00</t>
+          <t>-16,380.00</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>-73.07</t>
+          <t>-36.69</t>
         </is>
       </c>
     </row>
@@ -1827,48 +1827,48 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AWC</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45092</v>
+        <v>44446</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>21.70</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.04</v>
+        <v>15.7</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>44,640.00</t>
+          <t>86,800.00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>27,360.00</t>
+          <t>62,800.00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-17,280.00</t>
+          <t>-24,000.00</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>-38.71</t>
+          <t>-27.65</t>
         </is>
       </c>
     </row>
@@ -1880,48 +1880,48 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>PTG</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44446</v>
+        <v>45119</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>3,600</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>21.70</t>
+          <t>11.40</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>13.7</v>
+        <v>7.7</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>86,800.00</t>
+          <t>41,040.00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>54,800.00</t>
+          <t>27,720.00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>-32,000.00</t>
+          <t>-13,320.00</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>-36.87</t>
+          <t>-32.46</t>
         </is>
       </c>
     </row>
@@ -1933,48 +1933,48 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PTG</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45119</v>
+        <v>44508</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3,600</t>
+          <t>27,000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>11.40</t>
+          <t>38.75</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>7.1</v>
+        <v>25.25</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>41,040.00</t>
+          <t>1,046,250.00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>25,560.00</t>
+          <t>681,750.00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-15,480.00</t>
+          <t>-364,500.00</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>-37.72</t>
+          <t>-34.84</t>
         </is>
       </c>
     </row>
@@ -1991,43 +1991,43 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>SYNEX</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44508</v>
+        <v>44568</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>27,000</t>
+          <t>15,000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>38.75</t>
+          <t>28.70</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>24.8</v>
+        <v>10.5</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1,046,250.00</t>
+          <t>430,500.00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>669,600.00</t>
+          <t>157,500.00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-376,650.00</t>
+          <t>-273,000.00</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>-36.00</t>
+          <t>-63.41</t>
         </is>
       </c>
     </row>
@@ -2039,101 +2039,48 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SYNEX</t>
+          <t>TVO</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44568</v>
+        <v>45602</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>15,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>28.70</t>
+          <t>24.90</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>10</v>
+        <v>22.2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>430,500.00</t>
+          <t>99,600.00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>150,000.00</t>
+          <t>88,800.00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>-280,500.00</t>
+          <t>-10,800.00</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>-65.16</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>TVO</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>45602</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>4,000</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>24.90</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>99,600.00</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>85,200.00</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>-14,400.00</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>-14.46</t>
+          <t>-10.84</t>
         </is>
       </c>
     </row>

--- a/Excel/035-portfolio.xlsx
+++ b/Excel/035-portfolio.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_16454F92D64980BF6D7D38955A5DCE3A87475D4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97476856-07F3-D741-A6C5-1A48598F4383}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1681920A5565E4BE6D7D38955A5DCE3A874743F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2137A9FC-B005-46D7-B632-889790961E0F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="372" yWindow="396" windowWidth="22104" windowHeight="10476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="223">
   <si>
     <t>period</t>
   </si>
@@ -81,13 +73,13 @@
     <t>44,400.00</t>
   </si>
   <si>
-    <t>16,800.00</t>
-  </si>
-  <si>
-    <t>-27,600.00</t>
-  </si>
-  <si>
-    <t>-62.16</t>
+    <t>16,200.00</t>
+  </si>
+  <si>
+    <t>-28,200.00</t>
+  </si>
+  <si>
+    <t>-63.51</t>
   </si>
   <si>
     <t>ASP</t>
@@ -102,13 +94,13 @@
     <t>114,000.00</t>
   </si>
   <si>
-    <t>69,000.00</t>
-  </si>
-  <si>
-    <t>-45,000.00</t>
-  </si>
-  <si>
-    <t>-39.47</t>
+    <t>67,200.00</t>
+  </si>
+  <si>
+    <t>-46,800.00</t>
+  </si>
+  <si>
+    <t>-41.05</t>
   </si>
   <si>
     <t>C3</t>
@@ -126,34 +118,34 @@
     <t>288,000.00</t>
   </si>
   <si>
-    <t>159,120.00</t>
-  </si>
-  <si>
-    <t>-128,880.00</t>
-  </si>
-  <si>
-    <t>-44.75</t>
+    <t>137,520.00</t>
+  </si>
+  <si>
+    <t>-150,480.00</t>
+  </si>
+  <si>
+    <t>-52.25</t>
   </si>
   <si>
     <t>ORI</t>
   </si>
   <si>
-    <t>60,000</t>
-  </si>
-  <si>
-    <t>9.15</t>
-  </si>
-  <si>
-    <t>549,000.00</t>
-  </si>
-  <si>
-    <t>188,400.00</t>
-  </si>
-  <si>
-    <t>-360,600.00</t>
-  </si>
-  <si>
-    <t>-65.68</t>
+    <t>50,000</t>
+  </si>
+  <si>
+    <t>10.40</t>
+  </si>
+  <si>
+    <t>520,000.00</t>
+  </si>
+  <si>
+    <t>148,000.00</t>
+  </si>
+  <si>
+    <t>-372,000.00</t>
+  </si>
+  <si>
+    <t>-71.54</t>
   </si>
   <si>
     <t>C4</t>
@@ -171,13 +163,13 @@
     <t>388,500.00</t>
   </si>
   <si>
-    <t>115,200.00</t>
-  </si>
-  <si>
-    <t>-273,300.00</t>
-  </si>
-  <si>
-    <t>-70.35</t>
+    <t>95,400.00</t>
+  </si>
+  <si>
+    <t>-293,100.00</t>
+  </si>
+  <si>
+    <t>-75.44</t>
   </si>
   <si>
     <t>C2</t>
@@ -195,13 +187,13 @@
     <t>243,000.00</t>
   </si>
   <si>
-    <t>85,800.00</t>
-  </si>
-  <si>
-    <t>-157,200.00</t>
-  </si>
-  <si>
-    <t>-64.69</t>
+    <t>76,500.00</t>
+  </si>
+  <si>
+    <t>-166,500.00</t>
+  </si>
+  <si>
+    <t>-68.52</t>
   </si>
   <si>
     <t>A2</t>
@@ -216,13 +208,13 @@
     <t>148,800.00</t>
   </si>
   <si>
-    <t>36,000.00</t>
-  </si>
-  <si>
-    <t>-112,800.00</t>
-  </si>
-  <si>
-    <t>-75.81</t>
+    <t>32,400.00</t>
+  </si>
+  <si>
+    <t>-116,400.00</t>
+  </si>
+  <si>
+    <t>-78.23</t>
   </si>
   <si>
     <t>STA</t>
@@ -237,34 +229,13 @@
     <t>300,000.00</t>
   </si>
   <si>
-    <t>167,000.00</t>
-  </si>
-  <si>
-    <t>-133,000.00</t>
-  </si>
-  <si>
-    <t>-44.33</t>
-  </si>
-  <si>
-    <t>TMT</t>
-  </si>
-  <si>
-    <t>36,000</t>
-  </si>
-  <si>
-    <t>10.20</t>
-  </si>
-  <si>
-    <t>367,200.00</t>
-  </si>
-  <si>
-    <t>108,000.00</t>
-  </si>
-  <si>
-    <t>-259,200.00</t>
-  </si>
-  <si>
-    <t>-70.59</t>
+    <t>158,000.00</t>
+  </si>
+  <si>
+    <t>-142,000.00</t>
+  </si>
+  <si>
+    <t>-47.33</t>
   </si>
   <si>
     <t>TOA</t>
@@ -279,13 +250,13 @@
     <t>26,000.00</t>
   </si>
   <si>
-    <t>12,200.00</t>
-  </si>
-  <si>
-    <t>-13,800.00</t>
-  </si>
-  <si>
-    <t>-53.08</t>
+    <t>11,400.00</t>
+  </si>
+  <si>
+    <t>-14,600.00</t>
+  </si>
+  <si>
+    <t>-56.15</t>
   </si>
   <si>
     <t>2</t>
@@ -303,13 +274,13 @@
     <t>136,250.00</t>
   </si>
   <si>
-    <t>133,750.00</t>
-  </si>
-  <si>
-    <t>-2,500.00</t>
-  </si>
-  <si>
-    <t>-1.83</t>
+    <t>132,500.00</t>
+  </si>
+  <si>
+    <t>-3,750.00</t>
+  </si>
+  <si>
+    <t>-2.75</t>
   </si>
   <si>
     <t>CPNREIT</t>
@@ -324,13 +295,13 @@
     <t>990,000.00</t>
   </si>
   <si>
-    <t>676,500.00</t>
-  </si>
-  <si>
-    <t>-313,500.00</t>
-  </si>
-  <si>
-    <t>-31.67</t>
+    <t>643,500.00</t>
+  </si>
+  <si>
+    <t>-346,500.00</t>
+  </si>
+  <si>
+    <t>-35.00</t>
   </si>
   <si>
     <t>B3</t>
@@ -348,13 +319,13 @@
     <t>486,500.00</t>
   </si>
   <si>
-    <t>283,500.00</t>
-  </si>
-  <si>
-    <t>-203,000.00</t>
-  </si>
-  <si>
-    <t>-41.73</t>
+    <t>274,750.00</t>
+  </si>
+  <si>
+    <t>-211,750.00</t>
+  </si>
+  <si>
+    <t>-43.53</t>
   </si>
   <si>
     <t>GVREIT</t>
@@ -369,13 +340,13 @@
     <t>573,000.00</t>
   </si>
   <si>
-    <t>513,750.00</t>
-  </si>
-  <si>
-    <t>-59,250.00</t>
-  </si>
-  <si>
-    <t>-10.34</t>
+    <t>491,250.00</t>
+  </si>
+  <si>
+    <t>-81,750.00</t>
+  </si>
+  <si>
+    <t>-14.27</t>
   </si>
   <si>
     <t>A3</t>
@@ -393,13 +364,13 @@
     <t>1,198,800.00</t>
   </si>
   <si>
-    <t>550,800.00</t>
-  </si>
-  <si>
-    <t>-648,000.00</t>
-  </si>
-  <si>
-    <t>-54.05</t>
+    <t>575,100.00</t>
+  </si>
+  <si>
+    <t>-623,700.00</t>
+  </si>
+  <si>
+    <t>-52.03</t>
   </si>
   <si>
     <t>NER</t>
@@ -414,13 +385,13 @@
     <t>201,150.00</t>
   </si>
   <si>
-    <t>131,220.00</t>
-  </si>
-  <si>
-    <t>-69,930.00</t>
-  </si>
-  <si>
-    <t>-34.77</t>
+    <t>133,920.00</t>
+  </si>
+  <si>
+    <t>-67,230.00</t>
+  </si>
+  <si>
+    <t>-33.42</t>
   </si>
   <si>
     <t>B4</t>
@@ -438,208 +409,208 @@
     <t>470,400.00</t>
   </si>
   <si>
+    <t>231,000.00</t>
+  </si>
+  <si>
+    <t>-239,400.00</t>
+  </si>
+  <si>
+    <t>-50.89</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>TFFIF</t>
+  </si>
+  <si>
+    <t>20,000</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>150,000.00</t>
+  </si>
+  <si>
+    <t>126,000.00</t>
+  </si>
+  <si>
+    <t>-24,000.00</t>
+  </si>
+  <si>
+    <t>-16.00</t>
+  </si>
+  <si>
+    <t>WHAIR</t>
+  </si>
+  <si>
+    <t>8.70</t>
+  </si>
+  <si>
+    <t>435,000.00</t>
+  </si>
+  <si>
+    <t>282,500.00</t>
+  </si>
+  <si>
+    <t>-152,500.00</t>
+  </si>
+  <si>
+    <t>-35.06</t>
+  </si>
+  <si>
+    <t>WHART</t>
+  </si>
+  <si>
+    <t>12.30</t>
+  </si>
+  <si>
+    <t>246,000.00</t>
+  </si>
+  <si>
+    <t>204,000.00</t>
+  </si>
+  <si>
+    <t>-42,000.00</t>
+  </si>
+  <si>
+    <t>-17.07</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3BBIF</t>
+  </si>
+  <si>
+    <t>120,000</t>
+  </si>
+  <si>
+    <t>10.10</t>
+  </si>
+  <si>
+    <t>1,212,000.00</t>
+  </si>
+  <si>
+    <t>642,000.00</t>
+  </si>
+  <si>
+    <t>-570,000.00</t>
+  </si>
+  <si>
+    <t>-47.03</t>
+  </si>
+  <si>
+    <t>JMART</t>
+  </si>
+  <si>
+    <t>6,800</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>224,400.00</t>
+  </si>
+  <si>
+    <t>64,260.00</t>
+  </si>
+  <si>
+    <t>-160,140.00</t>
+  </si>
+  <si>
+    <t>-71.36</t>
+  </si>
+  <si>
+    <t>JMT</t>
+  </si>
+  <si>
+    <t>4,200</t>
+  </si>
+  <si>
+    <t>55.50</t>
+  </si>
+  <si>
     <t>233,100.00</t>
   </si>
   <si>
-    <t>-237,300.00</t>
-  </si>
-  <si>
-    <t>-50.45</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>TFFIF</t>
-  </si>
-  <si>
-    <t>20,000</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>150,000.00</t>
-  </si>
-  <si>
-    <t>128,000.00</t>
+    <t>49,980.00</t>
+  </si>
+  <si>
+    <t>-183,120.00</t>
+  </si>
+  <si>
+    <t>-78.56</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>KCE</t>
+  </si>
+  <si>
+    <t>77.25</t>
+  </si>
+  <si>
+    <t>772,500.00</t>
+  </si>
+  <si>
+    <t>183,000.00</t>
+  </si>
+  <si>
+    <t>-589,500.00</t>
+  </si>
+  <si>
+    <t>-76.31</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>AWC</t>
+  </si>
+  <si>
+    <t>9,000</t>
+  </si>
+  <si>
+    <t>4.96</t>
+  </si>
+  <si>
+    <t>44,640.00</t>
+  </si>
+  <si>
+    <t>26,280.00</t>
+  </si>
+  <si>
+    <t>-18,360.00</t>
+  </si>
+  <si>
+    <t>-41.13</t>
+  </si>
+  <si>
+    <t>BCH</t>
+  </si>
+  <si>
+    <t>4,000</t>
+  </si>
+  <si>
+    <t>21.70</t>
+  </si>
+  <si>
+    <t>86,800.00</t>
+  </si>
+  <si>
+    <t>64,800.00</t>
   </si>
   <si>
     <t>-22,000.00</t>
   </si>
   <si>
-    <t>-14.67</t>
-  </si>
-  <si>
-    <t>WHAIR</t>
-  </si>
-  <si>
-    <t>50,000</t>
-  </si>
-  <si>
-    <t>8.70</t>
-  </si>
-  <si>
-    <t>435,000.00</t>
-  </si>
-  <si>
-    <t>292,500.00</t>
-  </si>
-  <si>
-    <t>-142,500.00</t>
-  </si>
-  <si>
-    <t>-32.76</t>
-  </si>
-  <si>
-    <t>WHART</t>
-  </si>
-  <si>
-    <t>12.30</t>
-  </si>
-  <si>
-    <t>246,000.00</t>
-  </si>
-  <si>
-    <t>204,000.00</t>
-  </si>
-  <si>
-    <t>-42,000.00</t>
-  </si>
-  <si>
-    <t>-17.07</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3BBIF</t>
-  </si>
-  <si>
-    <t>120,000</t>
-  </si>
-  <si>
-    <t>10.10</t>
-  </si>
-  <si>
-    <t>1,212,000.00</t>
-  </si>
-  <si>
-    <t>630,000.00</t>
-  </si>
-  <si>
-    <t>-582,000.00</t>
-  </si>
-  <si>
-    <t>-48.02</t>
-  </si>
-  <si>
-    <t>JMART</t>
-  </si>
-  <si>
-    <t>6,800</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>224,400.00</t>
-  </si>
-  <si>
-    <t>70,040.00</t>
-  </si>
-  <si>
-    <t>-154,360.00</t>
-  </si>
-  <si>
-    <t>-68.79</t>
-  </si>
-  <si>
-    <t>JMT</t>
-  </si>
-  <si>
-    <t>4,200</t>
-  </si>
-  <si>
-    <t>55.50</t>
-  </si>
-  <si>
-    <t>58,380.00</t>
-  </si>
-  <si>
-    <t>-174,720.00</t>
-  </si>
-  <si>
-    <t>-74.95</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>KCE</t>
-  </si>
-  <si>
-    <t>77.25</t>
-  </si>
-  <si>
-    <t>772,500.00</t>
-  </si>
-  <si>
-    <t>212,000.00</t>
-  </si>
-  <si>
-    <t>-560,500.00</t>
-  </si>
-  <si>
-    <t>-72.56</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>AWC</t>
-  </si>
-  <si>
-    <t>9,000</t>
-  </si>
-  <si>
-    <t>4.96</t>
-  </si>
-  <si>
-    <t>44,640.00</t>
-  </si>
-  <si>
-    <t>28,260.00</t>
-  </si>
-  <si>
-    <t>-16,380.00</t>
-  </si>
-  <si>
-    <t>-36.69</t>
-  </si>
-  <si>
-    <t>BCH</t>
-  </si>
-  <si>
-    <t>4,000</t>
-  </si>
-  <si>
-    <t>21.70</t>
-  </si>
-  <si>
-    <t>86,800.00</t>
-  </si>
-  <si>
-    <t>62,800.00</t>
-  </si>
-  <si>
-    <t>-24,000.00</t>
-  </si>
-  <si>
-    <t>-27.65</t>
+    <t>-25.35</t>
   </si>
   <si>
     <t>PTG</t>
@@ -654,13 +625,13 @@
     <t>41,040.00</t>
   </si>
   <si>
-    <t>27,720.00</t>
-  </si>
-  <si>
-    <t>-13,320.00</t>
-  </si>
-  <si>
-    <t>-32.46</t>
+    <t>25,920.00</t>
+  </si>
+  <si>
+    <t>-15,120.00</t>
+  </si>
+  <si>
+    <t>-36.84</t>
   </si>
   <si>
     <t>RCL</t>
@@ -672,13 +643,13 @@
     <t>1,046,250.00</t>
   </si>
   <si>
-    <t>681,750.00</t>
-  </si>
-  <si>
-    <t>-364,500.00</t>
-  </si>
-  <si>
-    <t>-34.84</t>
+    <t>658,800.00</t>
+  </si>
+  <si>
+    <t>-387,450.00</t>
+  </si>
+  <si>
+    <t>-37.03</t>
   </si>
   <si>
     <t>SYNEX</t>
@@ -693,13 +664,13 @@
     <t>430,500.00</t>
   </si>
   <si>
-    <t>157,500.00</t>
-  </si>
-  <si>
-    <t>-273,000.00</t>
-  </si>
-  <si>
-    <t>-63.41</t>
+    <t>163,500.00</t>
+  </si>
+  <si>
+    <t>-267,000.00</t>
+  </si>
+  <si>
+    <t>-62.02</t>
   </si>
   <si>
     <t>TVO</t>
@@ -711,13 +682,13 @@
     <t>99,600.00</t>
   </si>
   <si>
-    <t>88,800.00</t>
-  </si>
-  <si>
-    <t>-10,800.00</t>
-  </si>
-  <si>
-    <t>-10.84</t>
+    <t>89,600.00</t>
+  </si>
+  <si>
+    <t>-10,000.00</t>
+  </si>
+  <si>
+    <t>-10.04</t>
   </si>
 </sst>
 </file>
@@ -739,6 +710,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1084,19 +1056,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1131,7 +1102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1151,7 +1122,7 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -1166,7 +1137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1186,7 +1157,7 @@
         <v>22</v>
       </c>
       <c r="G3">
-        <v>2.2999999999999998</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -1201,7 +1172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1221,7 +1192,7 @@
         <v>30</v>
       </c>
       <c r="G4">
-        <v>22.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
@@ -1236,7 +1207,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1256,7 +1227,7 @@
         <v>37</v>
       </c>
       <c r="G5">
-        <v>3.14</v>
+        <v>2.96</v>
       </c>
       <c r="H5" t="s">
         <v>38</v>
@@ -1271,7 +1242,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1291,7 +1262,7 @@
         <v>45</v>
       </c>
       <c r="G6">
-        <v>19.2</v>
+        <v>15.9</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
@@ -1306,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1326,7 +1297,7 @@
         <v>53</v>
       </c>
       <c r="G7">
-        <v>143</v>
+        <v>127.5</v>
       </c>
       <c r="H7" t="s">
         <v>54</v>
@@ -1341,7 +1312,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1361,7 +1332,7 @@
         <v>60</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="H8" t="s">
         <v>61</v>
@@ -1376,7 +1347,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1396,7 +1367,7 @@
         <v>67</v>
       </c>
       <c r="G9">
-        <v>16.7</v>
+        <v>15.8</v>
       </c>
       <c r="H9" t="s">
         <v>68</v>
@@ -1411,7 +1382,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1422,7 +1393,7 @@
         <v>72</v>
       </c>
       <c r="D10" s="2">
-        <v>44424</v>
+        <v>45175</v>
       </c>
       <c r="E10" t="s">
         <v>73</v>
@@ -1431,7 +1402,7 @@
         <v>74</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>11.4</v>
       </c>
       <c r="H10" t="s">
         <v>75</v>
@@ -1446,53 +1417,53 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45155</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11">
+        <v>10.6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="2">
-        <v>45175</v>
-      </c>
-      <c r="E11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11">
-        <v>12.2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
       </c>
       <c r="C12" t="s">
         <v>87</v>
       </c>
       <c r="D12" s="2">
-        <v>45155</v>
+        <v>44789</v>
       </c>
       <c r="E12" t="s">
         <v>88</v>
@@ -1501,7 +1472,7 @@
         <v>89</v>
       </c>
       <c r="G12">
-        <v>10.7</v>
+        <v>11.7</v>
       </c>
       <c r="H12" t="s">
         <v>90</v>
@@ -1516,53 +1487,53 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13">
+        <v>7.85</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="2">
-        <v>44789</v>
-      </c>
-      <c r="E13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13">
-        <v>12.3</v>
-      </c>
-      <c r="H13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" t="s">
-        <v>98</v>
-      </c>
-      <c r="J13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" t="s">
-        <v>101</v>
       </c>
       <c r="C14" t="s">
         <v>102</v>
       </c>
       <c r="D14" s="2">
-        <v>44044</v>
+        <v>44797</v>
       </c>
       <c r="E14" t="s">
         <v>103</v>
@@ -1571,7 +1542,7 @@
         <v>104</v>
       </c>
       <c r="G14">
-        <v>8.1</v>
+        <v>6.55</v>
       </c>
       <c r="H14" t="s">
         <v>105</v>
@@ -1586,53 +1557,53 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D15" s="2">
-        <v>44797</v>
+        <v>42633</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G15">
-        <v>6.85</v>
+        <v>7.1</v>
       </c>
       <c r="H15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>117</v>
       </c>
       <c r="D16" s="2">
-        <v>42633</v>
+        <v>44440</v>
       </c>
       <c r="E16" t="s">
         <v>118</v>
@@ -1641,7 +1612,7 @@
         <v>119</v>
       </c>
       <c r="G16">
-        <v>6.8</v>
+        <v>4.96</v>
       </c>
       <c r="H16" t="s">
         <v>120</v>
@@ -1656,167 +1627,167 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D17" s="2">
-        <v>44440</v>
+        <v>44649</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G17">
-        <v>4.8600000000000003</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D18" s="2">
-        <v>44649</v>
+        <v>45113</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G18">
-        <v>2.2200000000000002</v>
+        <v>6.3</v>
       </c>
       <c r="H18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>140</v>
       </c>
       <c r="D19" s="2">
-        <v>45113</v>
+        <v>44480</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>141</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19">
+        <v>5.65</v>
+      </c>
+      <c r="H19" t="s">
         <v>142</v>
       </c>
-      <c r="G19">
-        <v>6.4</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>143</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>144</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>145</v>
       </c>
-      <c r="K19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44566</v>
+      </c>
+      <c r="E20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="2">
-        <v>44480</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="G20">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H20" t="s">
         <v>148</v>
       </c>
-      <c r="F20" t="s">
+      <c r="I20" t="s">
         <v>149</v>
       </c>
-      <c r="G20">
-        <v>5.85</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>150</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>151</v>
       </c>
-      <c r="J20" t="s">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>152</v>
       </c>
-      <c r="K20" t="s">
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" s="2">
+        <v>43237</v>
+      </c>
+      <c r="E21" t="s">
         <v>154</v>
-      </c>
-      <c r="D21" s="2">
-        <v>44566</v>
-      </c>
-      <c r="E21" t="s">
-        <v>141</v>
       </c>
       <c r="F21" t="s">
         <v>155</v>
       </c>
       <c r="G21">
-        <v>10.199999999999999</v>
+        <v>5.35</v>
       </c>
       <c r="H21" t="s">
         <v>156</v>
@@ -1831,100 +1802,100 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
         <v>160</v>
       </c>
-      <c r="B22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" s="2">
+        <v>44946</v>
+      </c>
+      <c r="E22" t="s">
         <v>161</v>
       </c>
-      <c r="D22" s="2">
-        <v>43237</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>162</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="H22" t="s">
         <v>163</v>
       </c>
-      <c r="G22">
-        <v>5.25</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>164</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>165</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>166</v>
       </c>
-      <c r="K22" t="s">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" s="2">
+        <v>44952</v>
+      </c>
+      <c r="E23" t="s">
         <v>168</v>
       </c>
-      <c r="D23" s="2">
-        <v>44946</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>169</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23">
+        <v>11.9</v>
+      </c>
+      <c r="H23" t="s">
         <v>170</v>
       </c>
-      <c r="G23">
-        <v>10.3</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>171</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>172</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>173</v>
       </c>
-      <c r="K23" t="s">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>160</v>
-      </c>
-      <c r="B24" t="s">
-        <v>131</v>
       </c>
       <c r="C24" t="s">
         <v>175</v>
       </c>
       <c r="D24" s="2">
-        <v>44952</v>
+        <v>44476</v>
       </c>
       <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" t="s">
         <v>176</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24">
+        <v>18.3</v>
+      </c>
+      <c r="H24" t="s">
         <v>177</v>
-      </c>
-      <c r="G24">
-        <v>13.9</v>
-      </c>
-      <c r="H24" t="s">
-        <v>136</v>
       </c>
       <c r="I24" t="s">
         <v>178</v>
@@ -1936,53 +1907,53 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="B25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45092</v>
+      </c>
+      <c r="E25" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25">
+        <v>2.92</v>
+      </c>
+      <c r="H25" t="s">
+        <v>186</v>
+      </c>
+      <c r="I25" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>181</v>
       </c>
-      <c r="C25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="2">
-        <v>44476</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" t="s">
-        <v>183</v>
-      </c>
-      <c r="G25">
-        <v>21.2</v>
-      </c>
-      <c r="H25" t="s">
-        <v>184</v>
-      </c>
-      <c r="I25" t="s">
-        <v>185</v>
-      </c>
-      <c r="J25" t="s">
-        <v>186</v>
-      </c>
-      <c r="K25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>188</v>
-      </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
         <v>190</v>
       </c>
       <c r="D26" s="2">
-        <v>45092</v>
+        <v>44446</v>
       </c>
       <c r="E26" t="s">
         <v>191</v>
@@ -1991,7 +1962,7 @@
         <v>192</v>
       </c>
       <c r="G26">
-        <v>3.14</v>
+        <v>16.2</v>
       </c>
       <c r="H26" t="s">
         <v>193</v>
@@ -2006,18 +1977,18 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
         <v>197</v>
       </c>
       <c r="D27" s="2">
-        <v>44446</v>
+        <v>45119</v>
       </c>
       <c r="E27" t="s">
         <v>198</v>
@@ -2026,7 +1997,7 @@
         <v>199</v>
       </c>
       <c r="G27">
-        <v>15.7</v>
+        <v>7.2</v>
       </c>
       <c r="H27" t="s">
         <v>200</v>
@@ -2041,62 +2012,62 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
         <v>204</v>
       </c>
       <c r="D28" s="2">
-        <v>45119</v>
+        <v>44508</v>
       </c>
       <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" t="s">
         <v>205</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28">
+        <v>24.4</v>
+      </c>
+      <c r="H28" t="s">
         <v>206</v>
       </c>
-      <c r="G28">
-        <v>7.7</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>207</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>208</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>209</v>
       </c>
-      <c r="K28" t="s">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" s="2">
+        <v>44568</v>
+      </c>
+      <c r="E29" t="s">
         <v>211</v>
-      </c>
-      <c r="D29" s="2">
-        <v>44508</v>
-      </c>
-      <c r="E29" t="s">
-        <v>125</v>
       </c>
       <c r="F29" t="s">
         <v>212</v>
       </c>
       <c r="G29">
-        <v>25.25</v>
+        <v>10.9</v>
       </c>
       <c r="H29" t="s">
         <v>213</v>
@@ -2111,74 +2082,39 @@
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
         <v>217</v>
       </c>
       <c r="D30" s="2">
-        <v>44568</v>
+        <v>45602</v>
       </c>
       <c r="E30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" t="s">
         <v>218</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30">
+        <v>22.4</v>
+      </c>
+      <c r="H30" t="s">
         <v>219</v>
       </c>
-      <c r="G30">
-        <v>10.5</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>220</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>221</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>222</v>
-      </c>
-      <c r="K30" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" t="s">
-        <v>224</v>
-      </c>
-      <c r="D31" s="2">
-        <v>45602</v>
-      </c>
-      <c r="E31" t="s">
-        <v>198</v>
-      </c>
-      <c r="F31" t="s">
-        <v>225</v>
-      </c>
-      <c r="G31">
-        <v>22.2</v>
-      </c>
-      <c r="H31" t="s">
-        <v>226</v>
-      </c>
-      <c r="I31" t="s">
-        <v>227</v>
-      </c>
-      <c r="J31" t="s">
-        <v>228</v>
-      </c>
-      <c r="K31" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/035-portfolio.xlsx
+++ b/Excel/035-portfolio.xlsx
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>14.8</v>
+        <v>15.3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -533,17 +533,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>17,760.00</t>
+          <t>18,360.00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-26,640.00</t>
+          <t>-26,040.00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-60.00</t>
+          <t>-58.65</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -586,17 +586,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>18,720.00</t>
+          <t>20,520.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-25,920.00</t>
+          <t>-24,120.00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-58.06</t>
+          <t>-54.03</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>7.55</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -639,17 +639,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>51,340.00</t>
+          <t>64,940.00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-173,060.00</t>
+          <t>-159,460.00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-77.12</t>
+          <t>-71.06</t>
         </is>
       </c>
     </row>
@@ -674,35 +674,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>50,000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>538,500.00</t>
+          <t>450,000.00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>114,000.00</t>
+          <t>100,000.00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-424,500.00</t>
+          <t>-350,000.00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-78.83</t>
+          <t>-77.78</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -745,17 +745,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>143,400.00</t>
+          <t>148,200.00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-245,100.00</t>
+          <t>-240,300.00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-63.09</t>
+          <t>-61.85</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.2</v>
+        <v>5.85</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -851,17 +851,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>31,200.00</t>
+          <t>35,100.00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-117,600.00</t>
+          <t>-113,700.00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-79.03</t>
+          <t>-76.41</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>9.550000000000001</v>
+        <v>9.85</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -904,17 +904,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>119,375.00</t>
+          <t>123,125.00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-16,875.00</t>
+          <t>-13,125.00</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-12.39</t>
+          <t>-9.63</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -957,17 +957,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>632,500.00</t>
+          <t>638,000.00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-357,500.00</t>
+          <t>-352,000.00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-36.11</t>
+          <t>-35.56</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>8.15</v>
+        <v>8.35</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1010,17 +1010,17 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>326,000.00</t>
+          <t>334,000.00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-198,000.00</t>
+          <t>-190,000.00</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-37.79</t>
+          <t>-36.26</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>8.300000000000001</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1116,17 +1116,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>672,300.00</t>
+          <t>684,450.00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-526,500.00</t>
+          <t>-514,350.00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-43.92</t>
+          <t>-42.91</t>
         </is>
       </c>
     </row>
@@ -1151,35 +1151,35 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>32,000</t>
+          <t>27,000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.32</v>
+        <v>4.52</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>220,800.00</t>
+          <t>201,150.00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>138,240.00</t>
+          <t>122,040.00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-82,560.00</t>
+          <t>-79,110.00</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-37.39</t>
+          <t>-39.33</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1222,17 +1222,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>176,400.00</t>
+          <t>187,950.00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-294,000.00</t>
+          <t>-282,450.00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>-62.50</t>
+          <t>-60.04</t>
         </is>
       </c>
     </row>
@@ -1262,30 +1262,30 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>150,000.00</t>
+          <t>144,000.00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>118,000.00</t>
+          <t>121,000.00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-32,000.00</t>
+          <t>-23,000.00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>-21.33</t>
+          <t>-15.97</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.5</v>
+        <v>5.55</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1328,17 +1328,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>275,000.00</t>
+          <t>277,500.00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-160,000.00</t>
+          <t>-157,500.00</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>-36.78</t>
+          <t>-36.21</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1381,17 +1381,17 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>232,500.00</t>
+          <t>235,000.00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-57,500.00</t>
+          <t>-55,000.00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>-19.83</t>
+          <t>-18.97</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1434,17 +1434,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>732,000.00</t>
+          <t>756,000.00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-480,000.00</t>
+          <t>-456,000.00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>-39.60</t>
+          <t>-37.62</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>13.9</v>
+        <v>14.4</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1487,17 +1487,17 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>55,600.00</t>
+          <t>57,600.00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-31,200.00</t>
+          <t>-29,200.00</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>-35.94</t>
+          <t>-33.64</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>22.4</v>
+        <v>23.7</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1540,17 +1540,17 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>161,280.00</t>
+          <t>170,640.00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-126,720.00</t>
+          <t>-117,360.00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>-44.00</t>
+          <t>-40.75</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>29.75</v>
+        <v>29.5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1593,17 +1593,17 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>803,250.00</t>
+          <t>796,500.00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-243,000.00</t>
+          <t>-249,750.00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>-23.23</t>
+          <t>-23.87</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>13.4</v>
+        <v>14</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1646,17 +1646,17 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>134,000.00</t>
+          <t>140,000.00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-166,000.00</t>
+          <t>-160,000.00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>-55.33</t>
+          <t>-53.33</t>
         </is>
       </c>
     </row>
@@ -1681,35 +1681,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>15,000</t>
+          <t>17,500</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>28.70</t>
+          <t>26.40</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>11.6</v>
+        <v>12.6</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>430,500.00</t>
+          <t>462,000.00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>174,000.00</t>
+          <t>220,500.00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-256,500.00</t>
+          <t>-241,500.00</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>-59.58</t>
+          <t>-52.27</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1752,17 +1752,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>183,200.00</t>
+          <t>186,400.00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-8,800.00</t>
+          <t>-5,600.00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-4.58</t>
+          <t>-2.92</t>
         </is>
       </c>
     </row>
@@ -1787,35 +1787,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>4,200</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>37.50</t>
+          <t>55.50</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>10.6</v>
+        <v>12.4</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>262,500.00</t>
+          <t>233,100.00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>74,200.00</t>
+          <t>52,080.00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-188,300.00</t>
+          <t>-181,020.00</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>-71.73</t>
+          <t>-77.66</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>6.6</v>
+        <v>6.85</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1858,17 +1858,17 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>23,760.00</t>
+          <t>24,660.00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-17,280.00</t>
+          <t>-16,380.00</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>-42.11</t>
+          <t>-39.91</t>
         </is>
       </c>
     </row>
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>13.2</v>
+        <v>14.6</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1911,17 +1911,17 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>13,200.00</t>
+          <t>14,600.00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>-12,800.00</t>
+          <t>-11,400.00</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>-49.23</t>
+          <t>-43.85</t>
         </is>
       </c>
     </row>

--- a/Excel/035-portfolio.xlsx
+++ b/Excel/035-portfolio.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -533,17 +533,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>18,360.00</t>
+          <t>18,720.00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-26,040.00</t>
+          <t>-25,680.00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-58.65</t>
+          <t>-57.84</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -586,17 +586,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20,520.00</t>
+          <t>21,060.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-24,120.00</t>
+          <t>-23,580.00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-54.03</t>
+          <t>-52.82</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>9.550000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -639,17 +639,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>64,940.00</t>
+          <t>62,560.00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-159,460.00</t>
+          <t>-161,840.00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-71.06</t>
+          <t>-72.12</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -692,17 +692,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>100,000.00</t>
+          <t>107,000.00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-350,000.00</t>
+          <t>-343,000.00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-77.78</t>
+          <t>-76.22</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>24.7</v>
+        <v>24.2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -745,17 +745,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>148,200.00</t>
+          <t>145,200.00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-240,300.00</t>
+          <t>-243,300.00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-61.85</t>
+          <t>-62.63</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -798,17 +798,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>123,000.00</t>
+          <t>121,800.00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-120,000.00</t>
+          <t>-121,200.00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-49.38</t>
+          <t>-49.88</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.85</v>
+        <v>5.8</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -851,17 +851,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>35,100.00</t>
+          <t>34,800.00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-113,700.00</t>
+          <t>-114,000.00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-76.41</t>
+          <t>-76.61</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12,500</t>
+          <t>15,000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10.90</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -899,22 +899,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>136,250.00</t>
+          <t>161,250.00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>123,125.00</t>
+          <t>147,750.00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-13,125.00</t>
+          <t>-13,500.00</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-9.63</t>
+          <t>-8.37</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -957,17 +957,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>638,000.00</t>
+          <t>632,500.00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-352,000.00</t>
+          <t>-357,500.00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-35.56</t>
+          <t>-36.11</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>8.35</v>
+        <v>8.4</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1010,17 +1010,17 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>334,000.00</t>
+          <t>336,000.00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-190,000.00</t>
+          <t>-188,000.00</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-36.26</t>
+          <t>-35.88</t>
         </is>
       </c>
     </row>
@@ -1045,12 +1045,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>75,000</t>
+          <t>69,000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1058,22 +1058,22 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>573,000.00</t>
+          <t>534,750.00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>491,250.00</t>
+          <t>451,950.00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-81,750.00</t>
+          <t>-82,800.00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-14.27</t>
+          <t>-15.48</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>8.449999999999999</v>
+        <v>8.65</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1116,17 +1116,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>684,450.00</t>
+          <t>700,650.00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-514,350.00</t>
+          <t>-498,150.00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-42.91</t>
+          <t>-41.55</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1169,17 +1169,17 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>122,040.00</t>
+          <t>122,580.00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-79,110.00</t>
+          <t>-78,570.00</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-39.33</t>
+          <t>-39.06</t>
         </is>
       </c>
     </row>
@@ -1191,48 +1191,48 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SENA</t>
+          <t>PTT</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44649</v>
+        <v>45877</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>105,000</t>
+          <t>2,500</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.79</v>
+        <v>32.25</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>470,400.00</t>
+          <t>80,000.00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>187,950.00</t>
+          <t>80,625.00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-282,450.00</t>
+          <t>625.00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>-60.04</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
@@ -1244,48 +1244,48 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TFFIF</t>
+          <t>SENA</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45113</v>
+        <v>44649</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20,000</t>
+          <t>105,000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>6.05</v>
+        <v>1.81</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>144,000.00</t>
+          <t>470,400.00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>121,000.00</t>
+          <t>190,050.00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-23,000.00</t>
+          <t>-280,350.00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>-15.97</t>
+          <t>-59.60</t>
         </is>
       </c>
     </row>
@@ -1297,48 +1297,48 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>WHAIR</t>
+          <t>TFFIF</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44480</v>
+        <v>45113</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>50,000</t>
+          <t>20,000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.55</v>
+        <v>6.1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>435,000.00</t>
+          <t>144,000.00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>277,500.00</t>
+          <t>122,000.00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-157,500.00</t>
+          <t>-22,000.00</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>-36.21</t>
+          <t>-15.28</t>
         </is>
       </c>
     </row>
@@ -1350,101 +1350,101 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>WHART</t>
+          <t>WHAIR</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44566</v>
+        <v>44480</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25,000</t>
+          <t>50,000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>11.60</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>9.4</v>
+        <v>5.55</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>290,000.00</t>
+          <t>435,000.00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>235,000.00</t>
+          <t>277,500.00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-55,000.00</t>
+          <t>-157,500.00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>-18.97</t>
+          <t>-36.21</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3BBIF</t>
+          <t>WHART</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>43237</v>
+        <v>44566</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>120,000</t>
+          <t>25,000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10.10</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1,212,000.00</t>
+          <t>290,000.00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>756,000.00</t>
+          <t>232,500.00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-456,000.00</t>
+          <t>-57,500.00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>-37.62</t>
+          <t>-19.83</t>
         </is>
       </c>
     </row>
@@ -1456,48 +1456,48 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>3BBIF</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44446</v>
+        <v>43237</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>120,000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>21.70</t>
+          <t>10.10</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>14.4</v>
+        <v>6.35</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>86,800.00</t>
+          <t>1,212,000.00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>57,600.00</t>
+          <t>762,000.00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-29,200.00</t>
+          <t>-450,000.00</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>-33.64</t>
+          <t>-37.13</t>
         </is>
       </c>
     </row>
@@ -1509,48 +1509,48 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>IVL</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44802</v>
+        <v>44446</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7,200</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>21.70</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>23.7</v>
+        <v>14.3</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>288,000.00</t>
+          <t>86,800.00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>170,640.00</t>
+          <t>57,200.00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-117,360.00</t>
+          <t>-29,600.00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>-40.75</t>
+          <t>-34.10</t>
         </is>
       </c>
     </row>
@@ -1562,48 +1562,48 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>IVL</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44508</v>
+        <v>44802</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27,000</t>
+          <t>7,200</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>38.75</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>29.5</v>
+        <v>23.4</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1,046,250.00</t>
+          <t>288,000.00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>796,500.00</t>
+          <t>168,480.00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-249,750.00</t>
+          <t>-119,520.00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>-23.87</t>
+          <t>-41.50</t>
         </is>
       </c>
     </row>
@@ -1615,48 +1615,48 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>STA</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44362</v>
+        <v>44508</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>24,000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>40.15</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>14</v>
+        <v>29.25</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>300,000.00</t>
+          <t>963,600.00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>140,000.00</t>
+          <t>702,000.00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-160,000.00</t>
+          <t>-261,600.00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>-53.33</t>
+          <t>-27.15</t>
         </is>
       </c>
     </row>
@@ -1668,48 +1668,48 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SYNEX</t>
+          <t>STA</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44568</v>
+        <v>44362</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>17,500</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>26.40</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>12.6</v>
+        <v>14</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>462,000.00</t>
+          <t>300,000.00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>220,500.00</t>
+          <t>140,000.00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-241,500.00</t>
+          <t>-160,000.00</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>-52.27</t>
+          <t>-53.33</t>
         </is>
       </c>
     </row>
@@ -1721,101 +1721,101 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TVO</t>
+          <t>SYNEX</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45602</v>
+        <v>44568</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>17,500</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>26.40</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>23.3</v>
+        <v>12.6</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>192,000.00</t>
+          <t>462,000.00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>186,400.00</t>
+          <t>220,500.00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-5,600.00</t>
+          <t>-241,500.00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-2.92</t>
+          <t>-52.27</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>JMT</t>
+          <t>TVO</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44952</v>
+        <v>45602</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4,200</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>55.50</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>12.4</v>
+        <v>23.3</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>233,100.00</t>
+          <t>192,000.00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>52,080.00</t>
+          <t>186,400.00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-181,020.00</t>
+          <t>-5,600.00</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>-77.66</t>
+          <t>-2.92</t>
         </is>
       </c>
     </row>
@@ -1827,48 +1827,48 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PTG</t>
+          <t>JMT</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45119</v>
+        <v>44952</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3,600</t>
+          <t>4,200</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>11.40</t>
+          <t>55.50</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>6.85</v>
+        <v>12.1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>41,040.00</t>
+          <t>233,100.00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>24,660.00</t>
+          <t>50,820.00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-16,380.00</t>
+          <t>-182,280.00</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>-39.91</t>
+          <t>-78.20</t>
         </is>
       </c>
     </row>
@@ -1880,48 +1880,101 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PTG</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3,600</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>41,040.00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>24,480.00</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-16,560.00</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>-40.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>C1</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>TOA</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D29" s="2" t="n">
         <v>45175</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>26.00</t>
         </is>
       </c>
-      <c r="G28" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="G29" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>26,000.00</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>14,600.00</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>-11,400.00</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>-43.85</t>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>14,800.00</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>-11,200.00</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>-43.08</t>
         </is>
       </c>
     </row>

--- a/Excel/035-portfolio.xlsx
+++ b/Excel/035-portfolio.xlsx
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>15.6</v>
+        <v>14.5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -533,17 +533,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>18,720.00</t>
+          <t>17,400.00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-25,680.00</t>
+          <t>-27,000.00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-57.84</t>
+          <t>-60.81</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -586,17 +586,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,060.00</t>
+          <t>21,780.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-23,580.00</t>
+          <t>-22,860.00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-52.82</t>
+          <t>-51.21</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>9.199999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -639,17 +639,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>62,560.00</t>
+          <t>56,100.00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-161,840.00</t>
+          <t>-168,300.00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-72.12</t>
+          <t>-75.00</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -692,17 +692,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>107,000.00</t>
+          <t>114,000.00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-343,000.00</t>
+          <t>-336,000.00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-76.22</t>
+          <t>-74.67</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>24.2</v>
+        <v>22.1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -745,17 +745,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>145,200.00</t>
+          <t>132,600.00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-243,300.00</t>
+          <t>-255,900.00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-62.63</t>
+          <t>-65.87</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -798,17 +798,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>121,800.00</t>
+          <t>120,600.00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-121,200.00</t>
+          <t>-122,400.00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-49.88</t>
+          <t>-50.37</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -851,17 +851,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>34,800.00</t>
+          <t>31,800.00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-114,000.00</t>
+          <t>-117,000.00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-76.61</t>
+          <t>-78.63</t>
         </is>
       </c>
     </row>
@@ -886,35 +886,35 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>15,000</t>
+          <t>17,500</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10.75</t>
+          <t>10.60</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>9.85</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>161,250.00</t>
+          <t>185,500.00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>147,750.00</t>
+          <t>167,125.00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-13,500.00</t>
+          <t>-18,375.00</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-8.37</t>
+          <t>-9.91</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -957,17 +957,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>632,500.00</t>
+          <t>627,000.00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-357,500.00</t>
+          <t>-363,000.00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-36.11</t>
+          <t>-36.67</t>
         </is>
       </c>
     </row>
@@ -992,35 +992,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>40,000</t>
+          <t>50,000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>13.10</t>
+          <t>12.17</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>524,000.00</t>
+          <t>608,500.00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>336,000.00</t>
+          <t>405,000.00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-188,000.00</t>
+          <t>-203,500.00</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-35.88</t>
+          <t>-33.44</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6.55</v>
+        <v>6.3</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1063,17 +1063,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>451,950.00</t>
+          <t>434,700.00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-82,800.00</t>
+          <t>-100,050.00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-15.48</t>
+          <t>-18.71</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>8.65</v>
+        <v>8.6</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1116,17 +1116,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>700,650.00</t>
+          <t>696,600.00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-498,150.00</t>
+          <t>-502,200.00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-41.55</t>
+          <t>-41.89</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.54</v>
+        <v>4.44</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1169,17 +1169,17 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>122,580.00</t>
+          <t>119,880.00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-78,570.00</t>
+          <t>-81,270.00</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-39.06</t>
+          <t>-40.40</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>32.25</v>
+        <v>31.75</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1222,17 +1222,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>80,625.00</t>
+          <t>79,375.00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>625.00</t>
+          <t>-625.00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-0.78</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>190,050.00</t>
+          <t>192,150.00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-280,350.00</t>
+          <t>-278,250.00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>-59.60</t>
+          <t>-59.15</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>6.1</v>
+        <v>6.05</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1328,17 +1328,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>122,000.00</t>
+          <t>121,000.00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-22,000.00</t>
+          <t>-23,000.00</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>-15.28</t>
+          <t>-15.97</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.55</v>
+        <v>5.35</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1381,17 +1381,17 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>277,500.00</t>
+          <t>267,500.00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-157,500.00</t>
+          <t>-167,500.00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>-36.21</t>
+          <t>-38.51</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1434,17 +1434,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>232,500.00</t>
+          <t>227,500.00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-57,500.00</t>
+          <t>-62,500.00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>-19.83</t>
+          <t>-21.55</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6.35</v>
+        <v>6.15</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1487,17 +1487,17 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>762,000.00</t>
+          <t>738,000.00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-450,000.00</t>
+          <t>-474,000.00</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>-37.13</t>
+          <t>-39.11</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>14.3</v>
+        <v>13.1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1540,17 +1540,17 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>57,200.00</t>
+          <t>52,400.00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-29,600.00</t>
+          <t>-34,400.00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>-34.10</t>
+          <t>-39.63</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>23.4</v>
+        <v>20.3</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1593,17 +1593,17 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>168,480.00</t>
+          <t>146,160.00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-119,520.00</t>
+          <t>-141,840.00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>-41.50</t>
+          <t>-49.25</t>
         </is>
       </c>
     </row>
@@ -1628,35 +1628,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>24,000</t>
+          <t>27,000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>40.15</t>
+          <t>38.80</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>29.25</v>
+        <v>27</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>963,600.00</t>
+          <t>1,047,600.00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>702,000.00</t>
+          <t>729,000.00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-261,600.00</t>
+          <t>-318,600.00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>-27.15</t>
+          <t>-30.41</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>14</v>
+        <v>11.9</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1699,17 +1699,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>140,000.00</t>
+          <t>119,000.00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-160,000.00</t>
+          <t>-181,000.00</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>-53.33</t>
+          <t>-60.33</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>12.6</v>
+        <v>11.2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1752,17 +1752,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>220,500.00</t>
+          <t>196,000.00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-241,500.00</t>
+          <t>-266,000.00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-52.27</t>
+          <t>-57.58</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>23.3</v>
+        <v>25</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1805,17 +1805,17 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>186,400.00</t>
+          <t>200,000.00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-5,600.00</t>
+          <t>8,000.00</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>-2.92</t>
+          <t>4.17</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>12.1</v>
+        <v>11.2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1858,17 +1858,17 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>50,820.00</t>
+          <t>47,040.00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-182,280.00</t>
+          <t>-186,060.00</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>-78.20</t>
+          <t>-79.82</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1964,17 +1964,17 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>14,800.00</t>
+          <t>14,500.00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-11,200.00</t>
+          <t>-11,500.00</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>-43.08</t>
+          <t>-44.23</t>
         </is>
       </c>
     </row>

--- a/Excel/035-portfolio.xlsx
+++ b/Excel/035-portfolio.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -586,17 +586,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,780.00</t>
+          <t>22,500.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-22,860.00</t>
+          <t>-22,140.00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-51.21</t>
+          <t>-49.60</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>8.25</v>
+        <v>8.4</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -639,17 +639,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>56,100.00</t>
+          <t>57,120.00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-168,300.00</t>
+          <t>-167,280.00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-75.00</t>
+          <t>-74.55</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -692,17 +692,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>114,000.00</t>
+          <t>117,000.00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-336,000.00</t>
+          <t>-333,000.00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-74.67</t>
+          <t>-74.00</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>22.1</v>
+        <v>24.4</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -745,17 +745,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>132,600.00</t>
+          <t>146,400.00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-255,900.00</t>
+          <t>-242,100.00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-65.87</t>
+          <t>-62.32</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -798,17 +798,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>120,600.00</t>
+          <t>129,600.00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-122,400.00</t>
+          <t>-113,400.00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-50.37</t>
+          <t>-46.67</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.3</v>
+        <v>5.35</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -851,17 +851,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>31,800.00</t>
+          <t>32,100.00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-117,000.00</t>
+          <t>-116,700.00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-78.63</t>
+          <t>-78.43</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -957,17 +957,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>627,000.00</t>
+          <t>621,500.00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-363,000.00</t>
+          <t>-368,500.00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-36.67</t>
+          <t>-37.22</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6.3</v>
+        <v>6.25</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1063,17 +1063,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>434,700.00</t>
+          <t>431,250.00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-100,050.00</t>
+          <t>-103,500.00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-18.71</t>
+          <t>-19.35</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.44</v>
+        <v>4.42</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1169,17 +1169,17 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>119,880.00</t>
+          <t>119,340.00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-81,270.00</t>
+          <t>-81,810.00</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-40.40</t>
+          <t>-40.67</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>31.75</v>
+        <v>32</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1222,17 +1222,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>79,375.00</t>
+          <t>80,000.00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-625.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>192,150.00</t>
+          <t>195,300.00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-278,250.00</t>
+          <t>-275,100.00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>-59.15</t>
+          <t>-58.48</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>6.05</v>
+        <v>6.1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1328,17 +1328,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>121,000.00</t>
+          <t>122,000.00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-23,000.00</t>
+          <t>-22,000.00</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>-15.97</t>
+          <t>-15.28</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1540,17 +1540,17 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>52,400.00</t>
+          <t>53,600.00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-34,400.00</t>
+          <t>-33,200.00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>-39.63</t>
+          <t>-38.25</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>20.3</v>
+        <v>21.5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1593,17 +1593,17 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>146,160.00</t>
+          <t>154,800.00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-141,840.00</t>
+          <t>-133,200.00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>-49.25</t>
+          <t>-46.25</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1699,17 +1699,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>119,000.00</t>
+          <t>120,000.00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-181,000.00</t>
+          <t>-180,000.00</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>-60.33</t>
+          <t>-60.00</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1752,17 +1752,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>196,000.00</t>
+          <t>199,500.00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-266,000.00</t>
+          <t>-262,500.00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-57.58</t>
+          <t>-56.82</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>25</v>
+        <v>25.25</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1805,17 +1805,17 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>200,000.00</t>
+          <t>202,000.00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>8,000.00</t>
+          <t>10,000.00</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>5.21</t>
         </is>
       </c>
     </row>
@@ -1827,50 +1827,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>JMT</t>
+          <t>CPF</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44952</v>
+        <v>45890</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4,200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>55.50</t>
+          <t>24.10</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>11.2</v>
+        <v>24.2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>233,100.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>47,040.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-186,060.00</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>-79.82</t>
-        </is>
-      </c>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1880,48 +1876,48 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PTG</t>
+          <t>JMT</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45119</v>
+        <v>44952</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3,600</t>
+          <t>4,200</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>11.40</t>
+          <t>55.50</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>6.8</v>
+        <v>11.5</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>41,040.00</t>
+          <t>233,100.00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>24,480.00</t>
+          <t>48,300.00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>-16,560.00</t>
+          <t>-184,800.00</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>-40.35</t>
+          <t>-79.28</t>
         </is>
       </c>
     </row>
@@ -1933,48 +1929,101 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PTG</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3,600</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>41,040.00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>25,380.00</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>-15,660.00</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>-38.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>C1</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>TOA</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D30" s="2" t="n">
         <v>45175</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>26.00</t>
         </is>
       </c>
-      <c r="G29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="H29" t="inlineStr">
+      <c r="G30" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>26,000.00</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>14,500.00</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>-11,500.00</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>-44.23</t>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>14,600.00</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-11,400.00</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>-43.85</t>
         </is>
       </c>
     </row>

--- a/Excel/035-portfolio.xlsx
+++ b/Excel/035-portfolio.xlsx
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -533,17 +533,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>17,400.00</t>
+          <t>17,760.00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-27,000.00</t>
+          <t>-26,640.00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-60.81</t>
+          <t>-60.00</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -586,17 +586,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>22,500.00</t>
+          <t>21,600.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-22,140.00</t>
+          <t>-23,040.00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-49.60</t>
+          <t>-51.61</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>8.4</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -639,17 +639,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>57,120.00</t>
+          <t>57,460.00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-167,280.00</t>
+          <t>-166,940.00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-74.55</t>
+          <t>-74.39</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -692,17 +692,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>117,000.00</t>
+          <t>113,000.00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-333,000.00</t>
+          <t>-337,000.00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-74.00</t>
+          <t>-74.89</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>24.4</v>
+        <v>28</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -745,17 +745,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>146,400.00</t>
+          <t>168,000.00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-242,100.00</t>
+          <t>-220,500.00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-62.32</t>
+          <t>-56.76</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -798,17 +798,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>129,600.00</t>
+          <t>136,200.00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-113,400.00</t>
+          <t>-106,800.00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-46.67</t>
+          <t>-43.95</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.35</v>
+        <v>5.3</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -851,17 +851,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>32,100.00</t>
+          <t>31,800.00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-116,700.00</t>
+          <t>-117,000.00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-78.43</t>
+          <t>-78.63</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>9.550000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -904,17 +904,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>167,125.00</t>
+          <t>168,000.00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-18,375.00</t>
+          <t>-17,500.00</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-9.91</t>
+          <t>-9.43</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -957,17 +957,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>621,500.00</t>
+          <t>627,000.00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-368,500.00</t>
+          <t>-363,000.00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-37.22</t>
+          <t>-36.67</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1010,17 +1010,17 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>405,000.00</t>
+          <t>410,000.00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-203,500.00</t>
+          <t>-198,500.00</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-33.44</t>
+          <t>-32.62</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6.25</v>
+        <v>6.35</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1063,17 +1063,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>431,250.00</t>
+          <t>438,150.00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-103,500.00</t>
+          <t>-96,600.00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-19.35</t>
+          <t>-18.06</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.42</v>
+        <v>4.3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1169,17 +1169,17 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>119,340.00</t>
+          <t>116,100.00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-81,810.00</t>
+          <t>-85,050.00</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-40.67</t>
+          <t>-42.28</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>195,300.00</t>
+          <t>194,250.00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-275,100.00</t>
+          <t>-276,150.00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>-58.48</t>
+          <t>-58.71</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>6.1</v>
+        <v>6.05</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1328,17 +1328,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>122,000.00</t>
+          <t>121,000.00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-22,000.00</t>
+          <t>-23,000.00</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>-15.28</t>
+          <t>-15.97</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>9.1</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1434,17 +1434,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>227,500.00</t>
+          <t>226,250.00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-62,500.00</t>
+          <t>-63,750.00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>-21.55</t>
+          <t>-21.98</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6.15</v>
+        <v>6.2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1487,17 +1487,17 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>738,000.00</t>
+          <t>744,000.00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-474,000.00</t>
+          <t>-468,000.00</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>-39.11</t>
+          <t>-38.61</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>21.5</v>
+        <v>23.5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1593,17 +1593,17 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>154,800.00</t>
+          <t>169,200.00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-133,200.00</t>
+          <t>-118,800.00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>-46.25</t>
+          <t>-41.25</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>27</v>
+        <v>27.25</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1646,17 +1646,17 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>729,000.00</t>
+          <t>735,750.00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-318,600.00</t>
+          <t>-311,850.00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>-30.41</t>
+          <t>-29.77</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1752,17 +1752,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>199,500.00</t>
+          <t>201,250.00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-262,500.00</t>
+          <t>-260,750.00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-56.82</t>
+          <t>-56.44</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1907,17 +1907,17 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>48,300.00</t>
+          <t>47,880.00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>-184,800.00</t>
+          <t>-185,220.00</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>-79.28</t>
+          <t>-79.46</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>7.05</v>
+        <v>7</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1960,17 +1960,17 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>25,380.00</t>
+          <t>25,200.00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-15,660.00</t>
+          <t>-15,840.00</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>-38.16</t>
+          <t>-38.60</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2013,17 +2013,17 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>14,600.00</t>
+          <t>14,400.00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-11,400.00</t>
+          <t>-11,600.00</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>-43.85</t>
+          <t>-44.62</t>
         </is>
       </c>
     </row>

--- a/Excel/035-portfolio.xlsx
+++ b/Excel/035-portfolio.xlsx
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -533,17 +533,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>17,760.00</t>
+          <t>17,520.00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-26,640.00</t>
+          <t>-26,880.00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-60.00</t>
+          <t>-60.54</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -586,17 +586,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,600.00</t>
+          <t>21,780.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-23,040.00</t>
+          <t>-22,860.00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-51.61</t>
+          <t>-51.21</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>8.449999999999999</v>
+        <v>8.35</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -639,17 +639,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>57,460.00</t>
+          <t>56,780.00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-166,940.00</t>
+          <t>-167,620.00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-74.39</t>
+          <t>-74.70</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -745,17 +745,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>168,000.00</t>
+          <t>162,000.00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-220,500.00</t>
+          <t>-226,500.00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-56.76</t>
+          <t>-58.30</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -798,17 +798,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>136,200.00</t>
+          <t>133,800.00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-106,800.00</t>
+          <t>-109,200.00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-43.95</t>
+          <t>-44.94</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.3</v>
+        <v>5.25</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -851,17 +851,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>31,800.00</t>
+          <t>31,500.00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-117,000.00</t>
+          <t>-117,300.00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-78.63</t>
+          <t>-78.83</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>9.6</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -904,17 +904,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>168,000.00</t>
+          <t>167,125.00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-17,500.00</t>
+          <t>-18,375.00</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-9.43</t>
+          <t>-9.91</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6.35</v>
+        <v>6.4</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1063,17 +1063,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>438,150.00</t>
+          <t>441,600.00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-96,600.00</t>
+          <t>-93,150.00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-18.06</t>
+          <t>-17.42</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>8.6</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1116,17 +1116,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>696,600.00</t>
+          <t>684,450.00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-502,200.00</t>
+          <t>-514,350.00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-41.89</t>
+          <t>-42.91</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>194,250.00</t>
+          <t>195,300.00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-276,150.00</t>
+          <t>-275,100.00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>-58.71</t>
+          <t>-58.48</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.35</v>
+        <v>5.4</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1381,17 +1381,17 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>267,500.00</t>
+          <t>270,000.00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-167,500.00</t>
+          <t>-165,000.00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>-38.51</t>
+          <t>-37.93</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>9.050000000000001</v>
+        <v>9</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1434,17 +1434,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>226,250.00</t>
+          <t>225,000.00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-63,750.00</t>
+          <t>-65,000.00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>-21.98</t>
+          <t>-22.41</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>23.5</v>
+        <v>22.8</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1593,17 +1593,17 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>169,200.00</t>
+          <t>164,160.00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-118,800.00</t>
+          <t>-123,840.00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>-41.25</t>
+          <t>-43.00</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>27.25</v>
+        <v>26.75</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1646,17 +1646,17 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>735,750.00</t>
+          <t>722,250.00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-311,850.00</t>
+          <t>-325,350.00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>-29.77</t>
+          <t>-31.06</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1752,17 +1752,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>201,250.00</t>
+          <t>203,000.00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-260,750.00</t>
+          <t>-259,000.00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-56.44</t>
+          <t>-56.06</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>25.25</v>
+        <v>24.4</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1805,17 +1805,17 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>202,000.00</t>
+          <t>195,200.00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>10,000.00</t>
+          <t>3,200.00</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>1.67</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>7.15</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1960,17 +1960,17 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>25,200.00</t>
+          <t>25,740.00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-15,840.00</t>
+          <t>-15,300.00</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>-38.60</t>
+          <t>-37.28</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2013,17 +2013,17 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>14,400.00</t>
+          <t>14,600.00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-11,600.00</t>
+          <t>-11,400.00</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>-44.62</t>
+          <t>-43.85</t>
         </is>
       </c>
     </row>

--- a/Excel/035-portfolio.xlsx
+++ b/Excel/035-portfolio.xlsx
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>14.6</v>
+        <v>15</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -533,17 +533,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>17,520.00</t>
+          <t>18,000.00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-26,880.00</t>
+          <t>-26,400.00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-60.54</t>
+          <t>-59.46</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -586,17 +586,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,780.00</t>
+          <t>21,420.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-22,860.00</t>
+          <t>-23,220.00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-51.21</t>
+          <t>-52.02</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>8.35</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -639,17 +639,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>56,780.00</t>
+          <t>58,140.00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-167,620.00</t>
+          <t>-166,260.00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-74.70</t>
+          <t>-74.09</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -692,17 +692,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>113,000.00</t>
+          <t>112,000.00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-337,000.00</t>
+          <t>-338,000.00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-74.89</t>
+          <t>-75.11</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -798,17 +798,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>133,800.00</t>
+          <t>131,400.00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-109,200.00</t>
+          <t>-111,600.00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-44.94</t>
+          <t>-45.93</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.25</v>
+        <v>5.55</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -851,17 +851,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>31,500.00</t>
+          <t>33,300.00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-117,300.00</t>
+          <t>-115,500.00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-78.83</t>
+          <t>-77.62</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>9.550000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -904,17 +904,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>167,125.00</t>
+          <t>169,750.00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-18,375.00</t>
+          <t>-15,750.00</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-9.91</t>
+          <t>-8.49</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6.4</v>
+        <v>6.45</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1063,17 +1063,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>441,600.00</t>
+          <t>445,050.00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-93,150.00</t>
+          <t>-89,700.00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-17.42</t>
+          <t>-16.77</t>
         </is>
       </c>
     </row>
@@ -1098,35 +1098,35 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>81,000</t>
+          <t>75,000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>14.80</t>
+          <t>15.31</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>8.449999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1,198,800.00</t>
+          <t>1,148,400.00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>684,450.00</t>
+          <t>630,000.00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-514,350.00</t>
+          <t>-518,400.00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-42.91</t>
+          <t>-45.14</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>195,300.00</t>
+          <t>196,350.00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-275,100.00</t>
+          <t>-274,050.00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>-58.48</t>
+          <t>-58.26</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1328,17 +1328,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>121,000.00</t>
+          <t>120,000.00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-23,000.00</t>
+          <t>-24,000.00</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>-15.97</t>
+          <t>-16.67</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.4</v>
+        <v>5.55</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1381,17 +1381,17 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>270,000.00</t>
+          <t>277,500.00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-165,000.00</t>
+          <t>-157,500.00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>-37.93</t>
+          <t>-36.21</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1434,17 +1434,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>225,000.00</t>
+          <t>227,500.00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-65,000.00</t>
+          <t>-62,500.00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>-22.41</t>
+          <t>-21.55</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6.2</v>
+        <v>6.25</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1487,17 +1487,17 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>744,000.00</t>
+          <t>750,000.00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-468,000.00</t>
+          <t>-462,000.00</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>-38.61</t>
+          <t>-38.12</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>13.4</v>
+        <v>12.7</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1540,17 +1540,17 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>53,600.00</t>
+          <t>50,800.00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-33,200.00</t>
+          <t>-36,000.00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>-38.25</t>
+          <t>-41.47</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>22.8</v>
+        <v>23.5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1593,17 +1593,17 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>164,160.00</t>
+          <t>169,200.00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-123,840.00</t>
+          <t>-118,800.00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>-43.00</t>
+          <t>-41.25</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>26.75</v>
+        <v>28</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1646,17 +1646,17 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>722,250.00</t>
+          <t>756,000.00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-325,350.00</t>
+          <t>-291,600.00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>-31.06</t>
+          <t>-27.84</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1699,17 +1699,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>120,000.00</t>
+          <t>122,000.00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-180,000.00</t>
+          <t>-178,000.00</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>-60.00</t>
+          <t>-59.33</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1849,24 +1849,28 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>24.3</v>
+        <v>24</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>120,500.00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>120,000.00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+          <t>-500.00</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>-0.41</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1898,7 +1902,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1907,17 +1911,17 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>47,880.00</t>
+          <t>49,560.00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>-185,220.00</t>
+          <t>-183,540.00</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>-79.46</t>
+          <t>-78.74</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1955,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>7.15</v>
+        <v>7.45</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1960,17 +1964,17 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>25,740.00</t>
+          <t>26,820.00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-15,300.00</t>
+          <t>-14,220.00</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>-37.28</t>
+          <t>-34.65</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2008,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2013,17 +2017,17 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>14,600.00</t>
+          <t>14,500.00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-11,400.00</t>
+          <t>-11,500.00</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>-43.85</t>
+          <t>-44.23</t>
         </is>
       </c>
     </row>

--- a/Excel/035-portfolio.xlsx
+++ b/Excel/035-portfolio.xlsx
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -533,17 +533,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>18,000.00</t>
+          <t>17,400.00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-26,400.00</t>
+          <t>-27,000.00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-59.46</t>
+          <t>-60.81</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -586,17 +586,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,420.00</t>
+          <t>21,060.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-23,220.00</t>
+          <t>-23,580.00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-52.02</t>
+          <t>-52.82</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>8.550000000000001</v>
+        <v>8.35</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -639,17 +639,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>58,140.00</t>
+          <t>56,780.00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-166,260.00</t>
+          <t>-167,620.00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-74.09</t>
+          <t>-74.70</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -692,17 +692,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>112,000.00</t>
+          <t>110,000.00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-338,000.00</t>
+          <t>-340,000.00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-75.11</t>
+          <t>-75.56</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -745,17 +745,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>162,000.00</t>
+          <t>159,000.00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-226,500.00</t>
+          <t>-229,500.00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-58.30</t>
+          <t>-59.07</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -798,17 +798,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>131,400.00</t>
+          <t>129,000.00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-111,600.00</t>
+          <t>-114,000.00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-45.93</t>
+          <t>-46.91</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.55</v>
+        <v>5.5</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -851,17 +851,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>33,300.00</t>
+          <t>33,000.00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-115,500.00</t>
+          <t>-115,800.00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-77.62</t>
+          <t>-77.82</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -957,17 +957,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>627,000.00</t>
+          <t>616,000.00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-363,000.00</t>
+          <t>-374,000.00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-36.67</t>
+          <t>-37.78</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6.45</v>
+        <v>6.2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1063,17 +1063,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>445,050.00</t>
+          <t>427,800.00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-89,700.00</t>
+          <t>-106,950.00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-16.77</t>
+          <t>-20.00</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>8.4</v>
+        <v>8.25</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1116,17 +1116,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>630,000.00</t>
+          <t>618,750.00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-518,400.00</t>
+          <t>-529,650.00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-45.14</t>
+          <t>-46.12</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.3</v>
+        <v>4.26</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1169,17 +1169,17 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>116,100.00</t>
+          <t>115,020.00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-85,050.00</t>
+          <t>-86,130.00</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-42.28</t>
+          <t>-42.82</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>32</v>
+        <v>31.75</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1222,17 +1222,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>80,000.00</t>
+          <t>79,375.00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-625.00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.78</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.55</v>
+        <v>5.5</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1381,17 +1381,17 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>277,500.00</t>
+          <t>275,000.00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-157,500.00</t>
+          <t>-160,000.00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>-36.21</t>
+          <t>-36.78</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>9.1</v>
+        <v>9.15</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1434,17 +1434,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>227,500.00</t>
+          <t>228,750.00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-62,500.00</t>
+          <t>-61,250.00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>-21.55</t>
+          <t>-21.12</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6.25</v>
+        <v>6.2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1487,17 +1487,17 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>750,000.00</t>
+          <t>744,000.00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-462,000.00</t>
+          <t>-468,000.00</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>-38.12</t>
+          <t>-38.61</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>23.5</v>
+        <v>22.2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1593,17 +1593,17 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>169,200.00</t>
+          <t>159,840.00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-118,800.00</t>
+          <t>-128,160.00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>-41.25</t>
+          <t>-44.50</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>28</v>
+        <v>28.25</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1646,17 +1646,17 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>756,000.00</t>
+          <t>762,750.00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-291,600.00</t>
+          <t>-284,850.00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>-27.84</t>
+          <t>-27.19</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1699,17 +1699,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>122,000.00</t>
+          <t>120,000.00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-178,000.00</t>
+          <t>-180,000.00</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>-59.33</t>
+          <t>-60.00</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1752,17 +1752,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>203,000.00</t>
+          <t>204,750.00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-259,000.00</t>
+          <t>-257,250.00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-56.06</t>
+          <t>-55.68</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1805,17 +1805,17 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>195,200.00</t>
+          <t>196,800.00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>3,200.00</t>
+          <t>4,800.00</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1858,17 +1858,17 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>120,000.00</t>
+          <t>119,500.00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-500.00</t>
+          <t>-1,000.00</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-0.83</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>7.45</v>
+        <v>7.8</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1964,17 +1964,17 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>26,820.00</t>
+          <t>28,080.00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-14,220.00</t>
+          <t>-12,960.00</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>-34.65</t>
+          <t>-31.58</t>
         </is>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2017,17 +2017,17 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>14,500.00</t>
+          <t>14,200.00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-11,500.00</t>
+          <t>-11,800.00</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>-44.23</t>
+          <t>-45.38</t>
         </is>
       </c>
     </row>

--- a/Excel/035-portfolio.xlsx
+++ b/Excel/035-portfolio.xlsx
@@ -513,26 +513,38 @@
       <c r="D2" s="2" t="n">
         <v>45085</v>
       </c>
-      <c r="E2" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F2" t="n">
-        <v>37</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1,200</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="H2" t="n">
-        <v>44400</v>
-      </c>
-      <c r="I2" t="n">
-        <v>17160</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-27240</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-61.35135135135135</v>
+        <v>14.5</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>44,400.00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>17,400.00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-27,000.00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>-60.81</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -554,26 +566,38 @@
       <c r="D3" s="2" t="n">
         <v>45092</v>
       </c>
-      <c r="E3" t="n">
-        <v>9000</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.96</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9,000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
       </c>
       <c r="G3" t="n">
         <v>2.38</v>
       </c>
-      <c r="H3" t="n">
-        <v>44640</v>
-      </c>
-      <c r="I3" t="n">
-        <v>21420</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-23220</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-52.01612903225806</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>44,640.00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>21,420.00</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>-23,220.00</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-52.02</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -595,26 +619,38 @@
       <c r="D4" s="2" t="n">
         <v>44946</v>
       </c>
-      <c r="E4" t="n">
-        <v>6800</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6,800</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
       </c>
       <c r="G4" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>224400</v>
-      </c>
-      <c r="I4" t="n">
-        <v>64259.99999999999</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-160140</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-71.36363636363636</v>
+        <v>10.1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>224,400.00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>68,680.00</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-155,720.00</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>-69.39</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -636,26 +672,38 @@
       <c r="D5" s="2" t="n">
         <v>44658</v>
       </c>
-      <c r="E5" t="n">
-        <v>50000</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="H5" t="n">
-        <v>450000</v>
-      </c>
-      <c r="I5" t="n">
-        <v>121000</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-329000</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-73.11111111111111</v>
+        <v>2.74</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>450,000.00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>137,000.00</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-313,000.00</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>-69.56</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -677,26 +725,38 @@
       <c r="D6" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E6" t="n">
-        <v>6000</v>
-      </c>
-      <c r="F6" t="n">
-        <v>64.75</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>64.75</t>
+        </is>
       </c>
       <c r="G6" t="n">
-        <v>27.75</v>
-      </c>
-      <c r="H6" t="n">
-        <v>388500</v>
-      </c>
-      <c r="I6" t="n">
-        <v>166500</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-222000</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-57.14285714285714</v>
+        <v>27.5</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>388,500.00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>165,000.00</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-223,500.00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>-57.53</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -718,26 +778,38 @@
       <c r="D7" s="2" t="n">
         <v>44459</v>
       </c>
-      <c r="E7" t="n">
-        <v>600</v>
-      </c>
-      <c r="F7" t="n">
-        <v>405</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>405.00</t>
+        </is>
       </c>
       <c r="G7" t="n">
-        <v>219</v>
-      </c>
-      <c r="H7" t="n">
-        <v>243000</v>
-      </c>
-      <c r="I7" t="n">
-        <v>131400</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-111600</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-45.92592592592592</v>
+        <v>224</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>243,000.00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>134,400.00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-108,600.00</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>-44.69</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -759,26 +831,38 @@
       <c r="D8" s="2" t="n">
         <v>44945</v>
       </c>
-      <c r="E8" t="n">
-        <v>6000</v>
-      </c>
-      <c r="F8" t="n">
-        <v>24.8</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>24.80</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>148800</v>
-      </c>
-      <c r="I8" t="n">
-        <v>37200</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-111600</v>
-      </c>
-      <c r="K8" t="n">
-        <v>-75.00000000000001</v>
+        <v>6.5</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>148,800.00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>39,000.00</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-109,800.00</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>-73.79</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -800,26 +884,38 @@
       <c r="D9" s="2" t="n">
         <v>45155</v>
       </c>
-      <c r="E9" t="n">
-        <v>17500</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10.6</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>17,500</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="H9" t="n">
-        <v>185500</v>
-      </c>
-      <c r="I9" t="n">
-        <v>170625</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-14874.99999999999</v>
-      </c>
-      <c r="K9" t="n">
-        <v>-8.018867924528299</v>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>185,500.00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>169,750.00</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>-15,750.00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>-8.49</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -841,26 +937,38 @@
       <c r="D10" s="2" t="n">
         <v>44789</v>
       </c>
-      <c r="E10" t="n">
-        <v>55000</v>
-      </c>
-      <c r="F10" t="n">
-        <v>18</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>55,000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>990000</v>
-      </c>
-      <c r="I10" t="n">
-        <v>616000</v>
-      </c>
-      <c r="J10" t="n">
-        <v>-374000.0000000001</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-37.77777777777779</v>
+        <v>11.1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>990,000.00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>610,500.00</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-379,500.00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-38.33</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -882,26 +990,38 @@
       <c r="D11" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="E11" t="n">
-        <v>45000</v>
-      </c>
-      <c r="F11" t="n">
-        <v>12.7</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>45,000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
       </c>
       <c r="G11" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>571500</v>
-      </c>
-      <c r="I11" t="n">
-        <v>384750.0000000001</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-186749.9999999999</v>
-      </c>
-      <c r="K11" t="n">
-        <v>-32.6771653543307</v>
+        <v>8.6</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>571,500.00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>387,000.00</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-184,500.00</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-32.28</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -923,26 +1043,38 @@
       <c r="D12" s="2" t="n">
         <v>44797</v>
       </c>
-      <c r="E12" t="n">
-        <v>69000</v>
-      </c>
-      <c r="F12" t="n">
-        <v>7.75</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69,000</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
       </c>
       <c r="G12" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>534750</v>
-      </c>
-      <c r="I12" t="n">
-        <v>434700</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-100050</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-18.70967741935484</v>
+        <v>6.25</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>534,750.00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>431,250.00</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-103,500.00</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>-19.35</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -964,26 +1096,38 @@
       <c r="D13" s="2" t="n">
         <v>42633</v>
       </c>
-      <c r="E13" t="n">
-        <v>75000</v>
-      </c>
-      <c r="F13" t="n">
-        <v>15.312</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75,000</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1148400</v>
-      </c>
-      <c r="I13" t="n">
-        <v>637500</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-510899.9999999999</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-44.48798328108673</v>
+        <v>8.65</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1,148,400.00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>648,750.00</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-499,650.00</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>-43.51</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1005,26 +1149,38 @@
       <c r="D14" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="E14" t="n">
-        <v>27000</v>
-      </c>
-      <c r="F14" t="n">
-        <v>7.45</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27,000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
       </c>
       <c r="G14" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="H14" t="n">
-        <v>201150</v>
-      </c>
-      <c r="I14" t="n">
-        <v>120420</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-80730</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-40.13422818791946</v>
+        <v>4.54</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>201,150.00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>122,580.00</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-78,570.00</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>-39.06</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1046,26 +1202,38 @@
       <c r="D15" s="2" t="n">
         <v>45877</v>
       </c>
-      <c r="E15" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>31.5</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>31.50</t>
+        </is>
       </c>
       <c r="G15" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>157500</v>
-      </c>
-      <c r="I15" t="n">
-        <v>157500</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
+        <v>31.75</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>157,500.00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>158,750.00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1,250.00</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1087,26 +1255,38 @@
       <c r="D16" s="2" t="n">
         <v>44649</v>
       </c>
-      <c r="E16" t="n">
-        <v>105000</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4.48</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>105,000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
       </c>
       <c r="G16" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="H16" t="n">
-        <v>470400</v>
-      </c>
-      <c r="I16" t="n">
-        <v>197400</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-273000.0000000001</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-58.0357142857143</v>
+        <v>1.93</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>470,400.00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>202,650.00</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-267,750.00</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>-56.92</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1128,26 +1308,38 @@
       <c r="D17" s="2" t="n">
         <v>45113</v>
       </c>
-      <c r="E17" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7.2</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20,000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
       </c>
       <c r="G17" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H17" t="n">
-        <v>144000</v>
-      </c>
-      <c r="I17" t="n">
-        <v>118000</v>
-      </c>
-      <c r="J17" t="n">
-        <v>-26000</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-18.05555555555555</v>
+        <v>5.95</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>144,000.00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>119,000.00</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-25,000.00</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-17.36</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1169,26 +1361,38 @@
       <c r="D18" s="2" t="n">
         <v>44480</v>
       </c>
-      <c r="E18" t="n">
-        <v>50000</v>
-      </c>
-      <c r="F18" t="n">
-        <v>8.699999999999999</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
       </c>
       <c r="G18" t="n">
         <v>5.5</v>
       </c>
-      <c r="H18" t="n">
-        <v>435000</v>
-      </c>
-      <c r="I18" t="n">
-        <v>275000</v>
-      </c>
-      <c r="J18" t="n">
-        <v>-160000</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-36.78160919540229</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>435,000.00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>275,000.00</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>-160,000.00</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>-36.78</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1210,26 +1414,38 @@
       <c r="D19" s="2" t="n">
         <v>44566</v>
       </c>
-      <c r="E19" t="n">
-        <v>25000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>11.6</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25,000</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>11.60</t>
+        </is>
       </c>
       <c r="G19" t="n">
-        <v>9</v>
-      </c>
-      <c r="H19" t="n">
-        <v>290000</v>
-      </c>
-      <c r="I19" t="n">
-        <v>225000</v>
-      </c>
-      <c r="J19" t="n">
-        <v>-64999.99999999999</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-22.41379310344827</v>
+        <v>9.15</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>290,000.00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>228,750.00</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-61,250.00</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>-21.12</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1251,26 +1467,38 @@
       <c r="D20" s="2" t="n">
         <v>43237</v>
       </c>
-      <c r="E20" t="n">
-        <v>120000</v>
-      </c>
-      <c r="F20" t="n">
-        <v>10.1</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>120,000</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
       </c>
       <c r="G20" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1212000</v>
-      </c>
-      <c r="I20" t="n">
-        <v>774000</v>
-      </c>
-      <c r="J20" t="n">
-        <v>-437999.9999999999</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-36.13861386138613</v>
+        <v>6.4</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1,212,000.00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>768,000.00</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>-444,000.00</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>-36.63</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1292,26 +1520,38 @@
       <c r="D21" s="2" t="n">
         <v>44446</v>
       </c>
-      <c r="E21" t="n">
-        <v>4000</v>
-      </c>
-      <c r="F21" t="n">
-        <v>21.7</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
       </c>
       <c r="G21" t="n">
-        <v>13</v>
-      </c>
-      <c r="H21" t="n">
-        <v>86800</v>
-      </c>
-      <c r="I21" t="n">
-        <v>52000</v>
-      </c>
-      <c r="J21" t="n">
-        <v>-34800</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-40.09216589861751</v>
+        <v>13.1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>86,800.00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>52,400.00</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>-34,400.00</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>-39.63</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1333,26 +1573,38 @@
       <c r="D22" s="2" t="n">
         <v>44802</v>
       </c>
-      <c r="E22" t="n">
-        <v>7200</v>
-      </c>
-      <c r="F22" t="n">
-        <v>40</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>7,200</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
       </c>
       <c r="G22" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>288000</v>
-      </c>
-      <c r="I22" t="n">
-        <v>159120</v>
-      </c>
-      <c r="J22" t="n">
-        <v>-128880</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-44.74999999999999</v>
+        <v>23.3</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>288,000.00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>167,760.00</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>-120,240.00</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>-41.75</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1374,26 +1626,38 @@
       <c r="D23" s="2" t="n">
         <v>44508</v>
       </c>
-      <c r="E23" t="n">
-        <v>27000</v>
-      </c>
-      <c r="F23" t="n">
-        <v>38.8</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27,000</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>38.80</t>
+        </is>
       </c>
       <c r="G23" t="n">
-        <v>27.25</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1047600</v>
-      </c>
-      <c r="I23" t="n">
-        <v>735750</v>
-      </c>
-      <c r="J23" t="n">
-        <v>-311849.9999999999</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-29.7680412371134</v>
+        <v>26.75</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1,047,600.00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>722,250.00</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-325,350.00</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>-31.06</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1415,26 +1679,38 @@
       <c r="D24" s="2" t="n">
         <v>44362</v>
       </c>
-      <c r="E24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F24" t="n">
-        <v>30</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10,000</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
       </c>
       <c r="G24" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="H24" t="n">
-        <v>300000</v>
-      </c>
-      <c r="I24" t="n">
-        <v>127000</v>
-      </c>
-      <c r="J24" t="n">
-        <v>-173000</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-57.66666666666666</v>
+        <v>13.7</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>300,000.00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>137,000.00</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>-163,000.00</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>-54.33</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1456,26 +1732,38 @@
       <c r="D25" s="2" t="n">
         <v>44568</v>
       </c>
-      <c r="E25" t="n">
-        <v>17500</v>
-      </c>
-      <c r="F25" t="n">
-        <v>26.4</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>17,500</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
       </c>
       <c r="G25" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="H25" t="n">
-        <v>462000</v>
-      </c>
-      <c r="I25" t="n">
-        <v>220500</v>
-      </c>
-      <c r="J25" t="n">
-        <v>-241500</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-52.27272727272727</v>
+        <v>12.2</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>462,000.00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>213,500.00</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>-248,500.00</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>-53.79</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1497,26 +1785,38 @@
       <c r="D26" s="2" t="n">
         <v>45602</v>
       </c>
-      <c r="E26" t="n">
-        <v>8000</v>
-      </c>
-      <c r="F26" t="n">
-        <v>24</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>8,000</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
       </c>
       <c r="G26" t="n">
-        <v>25</v>
-      </c>
-      <c r="H26" t="n">
-        <v>192000</v>
-      </c>
-      <c r="I26" t="n">
-        <v>200000</v>
-      </c>
-      <c r="J26" t="n">
-        <v>8000</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.166666666666666</v>
+        <v>25.25</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>192,000.00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>202,000.00</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>10,000.00</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1538,25 +1838,39 @@
       <c r="D27" s="2" t="n">
         <v>45890</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
       </c>
       <c r="G27" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+        <v>23.5</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>116,000.00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>117,500.00</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1,500.00</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1577,26 +1891,38 @@
       <c r="D28" s="2" t="n">
         <v>44952</v>
       </c>
-      <c r="E28" t="n">
-        <v>4200</v>
-      </c>
-      <c r="F28" t="n">
-        <v>55.5</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>4,200</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>55.50</t>
+        </is>
       </c>
       <c r="G28" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="H28" t="n">
-        <v>233100</v>
-      </c>
-      <c r="I28" t="n">
-        <v>51240</v>
-      </c>
-      <c r="J28" t="n">
-        <v>-181860</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-78.01801801801803</v>
+        <v>12.8</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>233,100.00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>53,760.00</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-179,340.00</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>-76.94</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1618,26 +1944,38 @@
       <c r="D29" s="2" t="n">
         <v>45119</v>
       </c>
-      <c r="E29" t="n">
-        <v>3600</v>
-      </c>
-      <c r="F29" t="n">
-        <v>11.4</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3,600</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
       </c>
       <c r="G29" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>41040</v>
-      </c>
-      <c r="I29" t="n">
-        <v>30420</v>
-      </c>
-      <c r="J29" t="n">
-        <v>-10620</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-25.87719298245615</v>
+        <v>8.5</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>41,040.00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>30,600.00</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>-10,440.00</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>-25.44</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1659,26 +1997,38 @@
       <c r="D30" s="2" t="n">
         <v>45175</v>
       </c>
-      <c r="E30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F30" t="n">
-        <v>26</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
       </c>
       <c r="G30" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="H30" t="n">
-        <v>26000</v>
-      </c>
-      <c r="I30" t="n">
-        <v>15200</v>
-      </c>
-      <c r="J30" t="n">
-        <v>-10800</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-41.53846153846154</v>
+        <v>15.5</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>26,000.00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>15,500.00</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-10,500.00</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>-40.38</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Excel/035-portfolio.xlsx
+++ b/Excel/035-portfolio.xlsx
@@ -513,38 +513,26 @@
       <c r="D2" s="2" t="n">
         <v>45085</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1,200</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>37.00</t>
-        </is>
+      <c r="E2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F2" t="n">
+        <v>37</v>
       </c>
       <c r="G2" t="n">
         <v>14.5</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>44,400.00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>17,400.00</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>-27,000.00</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>-60.81</t>
-        </is>
+      <c r="H2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="I2" t="n">
+        <v>17400</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-27000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-60.81081081081081</v>
       </c>
     </row>
     <row r="3">
@@ -566,38 +554,26 @@
       <c r="D3" s="2" t="n">
         <v>45092</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>9,000</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
+      <c r="E3" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.96</v>
       </c>
       <c r="G3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>44,640.00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>21,420.00</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>-23,220.00</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>-52.02</t>
-        </is>
+        <v>2.34</v>
+      </c>
+      <c r="H3" t="n">
+        <v>44640</v>
+      </c>
+      <c r="I3" t="n">
+        <v>21060</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-23580</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-52.82258064516129</v>
       </c>
     </row>
     <row r="4">
@@ -619,38 +595,26 @@
       <c r="D4" s="2" t="n">
         <v>44946</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6,800</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>33.00</t>
-        </is>
+      <c r="E4" t="n">
+        <v>6800</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>224,400.00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>68,680.00</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>-155,720.00</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>-69.39</t>
-        </is>
+        <v>10.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>224400</v>
+      </c>
+      <c r="I4" t="n">
+        <v>70720</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-153680</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-68.48484848484848</v>
       </c>
     </row>
     <row r="5">
@@ -672,38 +636,26 @@
       <c r="D5" s="2" t="n">
         <v>44658</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>50,000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
+      <c r="E5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>450,000.00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>137,000.00</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>-313,000.00</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>-69.56</t>
-        </is>
+        <v>2.88</v>
+      </c>
+      <c r="H5" t="n">
+        <v>450000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>144000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-306000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-68</v>
       </c>
     </row>
     <row r="6">
@@ -725,38 +677,26 @@
       <c r="D6" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6,000</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>64.75</t>
-        </is>
+      <c r="E6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>64.75</v>
       </c>
       <c r="G6" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>388,500.00</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>165,000.00</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>-223,500.00</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>-57.53</t>
-        </is>
+        <v>28.25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>388500</v>
+      </c>
+      <c r="I6" t="n">
+        <v>169500</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-219000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-56.37065637065637</v>
       </c>
     </row>
     <row r="7">
@@ -778,38 +718,26 @@
       <c r="D7" s="2" t="n">
         <v>44459</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>405.00</t>
-        </is>
+      <c r="E7" t="n">
+        <v>600</v>
+      </c>
+      <c r="F7" t="n">
+        <v>405</v>
       </c>
       <c r="G7" t="n">
-        <v>224</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>243,000.00</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>134,400.00</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>-108,600.00</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>-44.69</t>
-        </is>
+        <v>227</v>
+      </c>
+      <c r="H7" t="n">
+        <v>243000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>136200</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-106800</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-43.95061728395061</v>
       </c>
     </row>
     <row r="8">
@@ -831,38 +759,26 @@
       <c r="D8" s="2" t="n">
         <v>44945</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6,000</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>24.80</t>
-        </is>
+      <c r="E8" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24.8</v>
       </c>
       <c r="G8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>148,800.00</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>39,000.00</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>-109,800.00</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>-73.79</t>
-        </is>
+        <v>7.45</v>
+      </c>
+      <c r="H8" t="n">
+        <v>148800</v>
+      </c>
+      <c r="I8" t="n">
+        <v>44700</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-104100</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-69.95967741935485</v>
       </c>
     </row>
     <row r="9">
@@ -884,38 +800,26 @@
       <c r="D9" s="2" t="n">
         <v>45155</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>17,500</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>10.60</t>
-        </is>
+      <c r="E9" t="n">
+        <v>17500</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10.6</v>
       </c>
       <c r="G9" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>185,500.00</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>169,750.00</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>-15,750.00</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>-8.49</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>185500</v>
+      </c>
+      <c r="I9" t="n">
+        <v>175000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-10499.99999999999</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-5.660377358490563</v>
       </c>
     </row>
     <row r="10">
@@ -937,38 +841,26 @@
       <c r="D10" s="2" t="n">
         <v>44789</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>55,000</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>18.00</t>
-        </is>
+      <c r="E10" t="n">
+        <v>55000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>990,000.00</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>610,500.00</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>-379,500.00</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>-38.33</t>
-        </is>
+        <v>11.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>990000</v>
+      </c>
+      <c r="I10" t="n">
+        <v>621500</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-368499.9999999999</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-37.22222222222221</v>
       </c>
     </row>
     <row r="11">
@@ -990,38 +882,26 @@
       <c r="D11" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>45,000</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>12.70</t>
-        </is>
+      <c r="E11" t="n">
+        <v>45000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12.7</v>
       </c>
       <c r="G11" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>571,500.00</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>387,000.00</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>-184,500.00</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>-32.28</t>
-        </is>
+        <v>8.85</v>
+      </c>
+      <c r="H11" t="n">
+        <v>571500</v>
+      </c>
+      <c r="I11" t="n">
+        <v>398250</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-173250</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-30.31496062992126</v>
       </c>
     </row>
     <row r="12">
@@ -1043,38 +923,26 @@
       <c r="D12" s="2" t="n">
         <v>44797</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>69,000</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
+      <c r="E12" t="n">
+        <v>69000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7.75</v>
       </c>
       <c r="G12" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>534,750.00</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>431,250.00</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>-103,500.00</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>-19.35</t>
-        </is>
+        <v>6.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>534750</v>
+      </c>
+      <c r="I12" t="n">
+        <v>441600</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-93149.99999999997</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-17.41935483870967</v>
       </c>
     </row>
     <row r="13">
@@ -1096,38 +964,26 @@
       <c r="D13" s="2" t="n">
         <v>42633</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>75,000</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>15.31</t>
-        </is>
+      <c r="E13" t="n">
+        <v>75000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15.312</v>
       </c>
       <c r="G13" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>1,148,400.00</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>648,750.00</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>-499,650.00</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>-43.51</t>
-        </is>
+        <v>8.550000000000001</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1148400</v>
+      </c>
+      <c r="I13" t="n">
+        <v>641250</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-507149.9999999999</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-44.16144200626958</v>
       </c>
     </row>
     <row r="14">
@@ -1149,38 +1005,26 @@
       <c r="D14" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>27,000</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
+      <c r="E14" t="n">
+        <v>27000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7.45</v>
       </c>
       <c r="G14" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>201,150.00</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>122,580.00</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>-78,570.00</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>-39.06</t>
-        </is>
+        <v>4.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>201150</v>
+      </c>
+      <c r="I14" t="n">
+        <v>121500</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-79650</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-39.59731543624161</v>
       </c>
     </row>
     <row r="15">
@@ -1202,38 +1046,26 @@
       <c r="D15" s="2" t="n">
         <v>45877</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5,000</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>31.50</t>
-        </is>
+      <c r="E15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>31.5</v>
       </c>
       <c r="G15" t="n">
-        <v>31.75</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>157,500.00</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>158,750.00</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>1,250.00</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
+        <v>32.25</v>
+      </c>
+      <c r="H15" t="n">
+        <v>157500</v>
+      </c>
+      <c r="I15" t="n">
+        <v>161250</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3750</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.380952380952381</v>
       </c>
     </row>
     <row r="16">
@@ -1255,38 +1087,26 @@
       <c r="D16" s="2" t="n">
         <v>44649</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>105,000</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
+      <c r="E16" t="n">
+        <v>105000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4.48</v>
       </c>
       <c r="G16" t="n">
         <v>1.93</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>470,400.00</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>202,650.00</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>-267,750.00</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>-56.92</t>
-        </is>
+      <c r="H16" t="n">
+        <v>470400</v>
+      </c>
+      <c r="I16" t="n">
+        <v>202650</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-267750.0000000001</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-56.91964285714287</v>
       </c>
     </row>
     <row r="17">
@@ -1308,38 +1128,26 @@
       <c r="D17" s="2" t="n">
         <v>45113</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>20,000</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>7.20</t>
-        </is>
+      <c r="E17" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7.2</v>
       </c>
       <c r="G17" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>144,000.00</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>119,000.00</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>-25,000.00</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>-17.36</t>
-        </is>
+        <v>6.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>144000</v>
+      </c>
+      <c r="I17" t="n">
+        <v>122000</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-22000.00000000001</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-15.27777777777778</v>
       </c>
     </row>
     <row r="18">
@@ -1361,38 +1169,26 @@
       <c r="D18" s="2" t="n">
         <v>44480</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>50,000</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>8.70</t>
-        </is>
+      <c r="E18" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8.699999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>435,000.00</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>275,000.00</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>-160,000.00</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>-36.78</t>
-        </is>
+        <v>5.55</v>
+      </c>
+      <c r="H18" t="n">
+        <v>435000</v>
+      </c>
+      <c r="I18" t="n">
+        <v>277500</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-157500</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-36.20689655172414</v>
       </c>
     </row>
     <row r="19">
@@ -1414,38 +1210,26 @@
       <c r="D19" s="2" t="n">
         <v>44566</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>25,000</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>11.60</t>
-        </is>
+      <c r="E19" t="n">
+        <v>25000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>11.6</v>
       </c>
       <c r="G19" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>290,000.00</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>228,750.00</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>-61,250.00</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>-21.12</t>
-        </is>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H19" t="n">
+        <v>290000</v>
+      </c>
+      <c r="I19" t="n">
+        <v>230000</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-60000.00000000001</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-20.6896551724138</v>
       </c>
     </row>
     <row r="20">
@@ -1467,38 +1251,26 @@
       <c r="D20" s="2" t="n">
         <v>43237</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>120,000</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>10.10</t>
-        </is>
+      <c r="E20" t="n">
+        <v>120000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10.1</v>
       </c>
       <c r="G20" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>1,212,000.00</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>768,000.00</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>-444,000.00</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>-36.63</t>
-        </is>
+        <v>6.6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1212000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>792000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-420000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-34.65346534653465</v>
       </c>
     </row>
     <row r="21">
@@ -1520,38 +1292,26 @@
       <c r="D21" s="2" t="n">
         <v>44446</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4,000</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>21.70</t>
-        </is>
+      <c r="E21" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>21.7</v>
       </c>
       <c r="G21" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>86,800.00</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>52,400.00</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>-34,400.00</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>-39.63</t>
-        </is>
+        <v>13.2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>86800</v>
+      </c>
+      <c r="I21" t="n">
+        <v>52800</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-39.1705069124424</v>
       </c>
     </row>
     <row r="22">
@@ -1573,38 +1333,26 @@
       <c r="D22" s="2" t="n">
         <v>44802</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>7,200</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>40.00</t>
-        </is>
+      <c r="E22" t="n">
+        <v>7200</v>
+      </c>
+      <c r="F22" t="n">
+        <v>40</v>
       </c>
       <c r="G22" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>288,000.00</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>167,760.00</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>-120,240.00</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>-41.75</t>
-        </is>
+        <v>24.1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>288000</v>
+      </c>
+      <c r="I22" t="n">
+        <v>173520</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-114480</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-39.75</v>
       </c>
     </row>
     <row r="23">
@@ -1626,38 +1374,26 @@
       <c r="D23" s="2" t="n">
         <v>44508</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>27,000</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>38.80</t>
-        </is>
+      <c r="E23" t="n">
+        <v>27000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>38.8</v>
       </c>
       <c r="G23" t="n">
-        <v>26.75</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>1,047,600.00</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>722,250.00</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>-325,350.00</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>-31.06</t>
-        </is>
+        <v>28.25</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1047600</v>
+      </c>
+      <c r="I23" t="n">
+        <v>762750</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-284849.9999999999</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-27.19072164948453</v>
       </c>
     </row>
     <row r="24">
@@ -1679,38 +1415,26 @@
       <c r="D24" s="2" t="n">
         <v>44362</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>10,000</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
+      <c r="E24" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>300,000.00</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>137,000.00</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>-163,000.00</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>-54.33</t>
-        </is>
+        <v>13.4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>300000</v>
+      </c>
+      <c r="I24" t="n">
+        <v>134000</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-166000</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-55.33333333333334</v>
       </c>
     </row>
     <row r="25">
@@ -1732,38 +1456,26 @@
       <c r="D25" s="2" t="n">
         <v>44568</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>17,500</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>26.40</t>
-        </is>
+      <c r="E25" t="n">
+        <v>17500</v>
+      </c>
+      <c r="F25" t="n">
+        <v>26.4</v>
       </c>
       <c r="G25" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>462,000.00</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>213,500.00</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>-248,500.00</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>-53.79</t>
-        </is>
+        <v>12.3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>462000</v>
+      </c>
+      <c r="I25" t="n">
+        <v>215250</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-246750</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-53.40909090909091</v>
       </c>
     </row>
     <row r="26">
@@ -1785,38 +1497,26 @@
       <c r="D26" s="2" t="n">
         <v>45602</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>8,000</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>24.00</t>
-        </is>
+      <c r="E26" t="n">
+        <v>8000</v>
+      </c>
+      <c r="F26" t="n">
+        <v>24</v>
       </c>
       <c r="G26" t="n">
-        <v>25.25</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>192,000.00</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>202,000.00</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>10,000.00</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
+        <v>25.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>192000</v>
+      </c>
+      <c r="I26" t="n">
+        <v>204000</v>
+      </c>
+      <c r="J26" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K26" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="27">
@@ -1838,39 +1538,25 @@
       <c r="D27" s="2" t="n">
         <v>45890</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>5,000</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>23.20</t>
-        </is>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>116,000.00</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>117,500.00</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>1,500.00</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
+        <v>23.1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1891,38 +1577,26 @@
       <c r="D28" s="2" t="n">
         <v>44952</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4,200</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>55.50</t>
-        </is>
+      <c r="E28" t="n">
+        <v>4200</v>
+      </c>
+      <c r="F28" t="n">
+        <v>55.5</v>
       </c>
       <c r="G28" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>233,100.00</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>53,760.00</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>-179,340.00</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>-76.94</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="H28" t="n">
+        <v>233100</v>
+      </c>
+      <c r="I28" t="n">
+        <v>54600</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-178500</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-76.57657657657657</v>
       </c>
     </row>
     <row r="29">
@@ -1944,38 +1618,26 @@
       <c r="D29" s="2" t="n">
         <v>45119</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3,600</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>11.40</t>
-        </is>
+      <c r="E29" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F29" t="n">
+        <v>11.4</v>
       </c>
       <c r="G29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>41,040.00</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>30,600.00</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>-10,440.00</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>-25.44</t>
-        </is>
+        <v>8.4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>41040</v>
+      </c>
+      <c r="I29" t="n">
+        <v>30240</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-10800</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-26.31578947368421</v>
       </c>
     </row>
     <row r="30">
@@ -1997,38 +1659,26 @@
       <c r="D30" s="2" t="n">
         <v>45175</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1,000</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
+      <c r="E30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F30" t="n">
+        <v>26</v>
       </c>
       <c r="G30" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>26,000.00</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>15,500.00</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>-10,500.00</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>-40.38</t>
-        </is>
+        <v>15.1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>26000</v>
+      </c>
+      <c r="I30" t="n">
+        <v>15100</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-10900</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-41.92307692307693</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/035-portfolio.xlsx
+++ b/Excel/035-portfolio.xlsx
@@ -513,26 +513,38 @@
       <c r="D2" s="2" t="n">
         <v>45085</v>
       </c>
-      <c r="E2" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F2" t="n">
-        <v>37</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1,200</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="H2" t="n">
-        <v>44400</v>
-      </c>
-      <c r="I2" t="n">
-        <v>17400</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-27000</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-60.81081081081081</v>
+        <v>13.9</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>44,400.00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>16,680.00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-27,720.00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>-62.43</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -554,26 +566,38 @@
       <c r="D3" s="2" t="n">
         <v>45092</v>
       </c>
-      <c r="E3" t="n">
-        <v>9000</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.96</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9,000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="H3" t="n">
-        <v>44640</v>
-      </c>
-      <c r="I3" t="n">
-        <v>21060</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-23580</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-52.82258064516129</v>
+        <v>2.42</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>44,640.00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>21,780.00</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>-22,860.00</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-51.21</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -595,26 +619,38 @@
       <c r="D4" s="2" t="n">
         <v>44946</v>
       </c>
-      <c r="E4" t="n">
-        <v>6800</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6,800</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
       </c>
       <c r="G4" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>224400</v>
-      </c>
-      <c r="I4" t="n">
-        <v>70720</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-153680</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-68.48484848484848</v>
+        <v>10.3</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>224,400.00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>70,040.00</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-154,360.00</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>-68.79</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -625,37 +661,49 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>JMT</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44658</v>
-      </c>
-      <c r="E5" t="n">
-        <v>50000</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+        <v>44952</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4,200</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>55.50</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H5" t="n">
-        <v>450000</v>
-      </c>
-      <c r="I5" t="n">
-        <v>144000</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-306000</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-68</v>
+        <v>12.8</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>233,100.00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>53,760.00</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-179,340.00</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>-76.94</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -666,37 +714,49 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PTTGC</t>
+          <t>PTG</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44272</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6000</v>
-      </c>
-      <c r="F6" t="n">
-        <v>64.75</v>
+        <v>45119</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3,600</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
       </c>
       <c r="G6" t="n">
-        <v>28.25</v>
-      </c>
-      <c r="H6" t="n">
-        <v>388500</v>
-      </c>
-      <c r="I6" t="n">
-        <v>169500</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-219000</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-56.37065637065637</v>
+        <v>8.5</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>41,040.00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>30,600.00</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-10,440.00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>-25.44</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -707,78 +767,102 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SCC</t>
+          <t>TOA</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44459</v>
-      </c>
-      <c r="E7" t="n">
-        <v>600</v>
-      </c>
-      <c r="F7" t="n">
-        <v>405</v>
+        <v>45175</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
       </c>
       <c r="G7" t="n">
-        <v>227</v>
-      </c>
-      <c r="H7" t="n">
-        <v>243000</v>
-      </c>
-      <c r="I7" t="n">
-        <v>136200</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-106800</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-43.95061728395061</v>
+        <v>14.6</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>26,000.00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>14,600.00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-11,400.00</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>-43.85</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SINGER</t>
+          <t>AIMIRT</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44945</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6000</v>
-      </c>
-      <c r="F8" t="n">
-        <v>24.8</v>
+        <v>45155</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>17,500</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="H8" t="n">
-        <v>148800</v>
-      </c>
-      <c r="I8" t="n">
-        <v>44700</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-104100</v>
-      </c>
-      <c r="K8" t="n">
-        <v>-69.95967741935485</v>
+        <v>10.1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>185,500.00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>176,750.00</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-8,750.00</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>-4.72</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -789,37 +873,49 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AIMIRT</t>
+          <t>CPNREIT</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45155</v>
-      </c>
-      <c r="E9" t="n">
-        <v>17500</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10.6</v>
+        <v>44789</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>55,000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H9" t="n">
-        <v>185500</v>
-      </c>
-      <c r="I9" t="n">
-        <v>175000</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-10499.99999999999</v>
-      </c>
-      <c r="K9" t="n">
-        <v>-5.660377358490563</v>
+        <v>11.9</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>990,000.00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>654,500.00</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>-335,500.00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>-33.89</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -835,32 +931,44 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CPNREIT</t>
+          <t>DIF</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44789</v>
-      </c>
-      <c r="E10" t="n">
-        <v>55000</v>
-      </c>
-      <c r="F10" t="n">
-        <v>18</v>
+        <v>44044</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>45,000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>990000</v>
-      </c>
-      <c r="I10" t="n">
-        <v>621500</v>
-      </c>
-      <c r="J10" t="n">
-        <v>-368499.9999999999</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-37.22222222222221</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>571,500.00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>418,500.00</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-153,000.00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-26.77</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -876,32 +984,44 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DIF</t>
+          <t>GVREIT</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44044</v>
-      </c>
-      <c r="E11" t="n">
-        <v>45000</v>
-      </c>
-      <c r="F11" t="n">
-        <v>12.7</v>
+        <v>44797</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69,000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
       </c>
       <c r="G11" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="H11" t="n">
-        <v>571500</v>
-      </c>
-      <c r="I11" t="n">
-        <v>398250</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-173250</v>
-      </c>
-      <c r="K11" t="n">
-        <v>-30.31496062992126</v>
+        <v>6.4</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>534,750.00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>441,600.00</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-93,150.00</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-17.42</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -912,37 +1032,49 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GVREIT</t>
+          <t>MCS</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44797</v>
-      </c>
-      <c r="E12" t="n">
-        <v>69000</v>
-      </c>
-      <c r="F12" t="n">
-        <v>7.75</v>
+        <v>42633</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75,000</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
       </c>
       <c r="G12" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>534750</v>
-      </c>
-      <c r="I12" t="n">
-        <v>441600</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-93149.99999999997</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-17.41935483870967</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1,148,400.00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>652,500.00</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-495,900.00</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>-43.18</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -953,37 +1085,49 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MCS</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>42633</v>
-      </c>
-      <c r="E13" t="n">
-        <v>75000</v>
-      </c>
-      <c r="F13" t="n">
-        <v>15.312</v>
+        <v>44440</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27,000</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1148400</v>
-      </c>
-      <c r="I13" t="n">
-        <v>641250</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-507149.9999999999</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-44.16144200626958</v>
+        <v>4.44</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>201,150.00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>119,880.00</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-81,270.00</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>-40.40</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -994,37 +1138,49 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>PTT</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44440</v>
-      </c>
-      <c r="E14" t="n">
-        <v>27000</v>
-      </c>
-      <c r="F14" t="n">
-        <v>7.45</v>
+        <v>45877</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>31.50</t>
+        </is>
       </c>
       <c r="G14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>201150</v>
-      </c>
-      <c r="I14" t="n">
-        <v>121500</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-79650</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-39.59731543624161</v>
+        <v>32.75</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>157,500.00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>163,750.00</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>6,250.00</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1035,37 +1191,49 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PTT</t>
+          <t>SENA</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45877</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>31.5</v>
+        <v>44649</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>105,000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
       </c>
       <c r="G15" t="n">
-        <v>32.25</v>
-      </c>
-      <c r="H15" t="n">
-        <v>157500</v>
-      </c>
-      <c r="I15" t="n">
-        <v>161250</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3750</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.380952380952381</v>
+        <v>1.94</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>470,400.00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>203,700.00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-266,700.00</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>-56.70</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1076,37 +1244,49 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SENA</t>
+          <t>TFFIF</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44649</v>
-      </c>
-      <c r="E16" t="n">
-        <v>105000</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4.48</v>
+        <v>45113</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20,000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
       </c>
       <c r="G16" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H16" t="n">
-        <v>470400</v>
-      </c>
-      <c r="I16" t="n">
-        <v>202650</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-267750.0000000001</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-56.91964285714287</v>
+        <v>6.1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>144,000.00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>122,000.00</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-22,000.00</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>-15.28</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1117,37 +1297,49 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TFFIF</t>
+          <t>WHAIR</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45113</v>
-      </c>
-      <c r="E17" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7.2</v>
+        <v>44480</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
       </c>
       <c r="G17" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>144000</v>
-      </c>
-      <c r="I17" t="n">
-        <v>122000</v>
-      </c>
-      <c r="J17" t="n">
-        <v>-22000.00000000001</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-15.27777777777778</v>
+        <v>5.95</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>435,000.00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>297,500.00</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-137,500.00</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-31.61</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1158,78 +1350,102 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>WHAIR</t>
+          <t>WHART</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44480</v>
-      </c>
-      <c r="E18" t="n">
-        <v>50000</v>
-      </c>
-      <c r="F18" t="n">
-        <v>8.699999999999999</v>
+        <v>44566</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20,000</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
       </c>
       <c r="G18" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="H18" t="n">
-        <v>435000</v>
-      </c>
-      <c r="I18" t="n">
-        <v>277500</v>
-      </c>
-      <c r="J18" t="n">
-        <v>-157500</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-36.20689655172414</v>
+        <v>9.65</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>246,000.00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>193,000.00</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>-53,000.00</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>-21.54</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>WHART</t>
+          <t>3BBIF</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44566</v>
-      </c>
-      <c r="E19" t="n">
-        <v>25000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>11.6</v>
+        <v>43237</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>120,000</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
       </c>
       <c r="G19" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>290000</v>
-      </c>
-      <c r="I19" t="n">
-        <v>230000</v>
-      </c>
-      <c r="J19" t="n">
-        <v>-60000.00000000001</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-20.6896551724138</v>
+        <v>6.75</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1,212,000.00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>810,000.00</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-402,000.00</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>-33.17</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1240,37 +1456,49 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3BBIF</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>43237</v>
-      </c>
-      <c r="E20" t="n">
-        <v>120000</v>
-      </c>
-      <c r="F20" t="n">
-        <v>10.1</v>
+        <v>44446</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
       </c>
       <c r="G20" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1212000</v>
-      </c>
-      <c r="I20" t="n">
-        <v>792000</v>
-      </c>
-      <c r="J20" t="n">
-        <v>-420000</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-34.65346534653465</v>
+        <v>13.4</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>86,800.00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>53,600.00</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>-33,200.00</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>-38.25</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1281,37 +1509,49 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44446</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4000</v>
-      </c>
-      <c r="F21" t="n">
-        <v>21.7</v>
+        <v>44508</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27,000</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>38.80</t>
+        </is>
       </c>
       <c r="G21" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>86800</v>
-      </c>
-      <c r="I21" t="n">
-        <v>52800</v>
-      </c>
-      <c r="J21" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-39.1705069124424</v>
+        <v>28.25</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1,047,600.00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>762,750.00</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>-284,850.00</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>-27.19</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1322,37 +1562,49 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>IVL</t>
+          <t>STA</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44802</v>
-      </c>
-      <c r="E22" t="n">
-        <v>7200</v>
-      </c>
-      <c r="F22" t="n">
-        <v>40</v>
+        <v>44362</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10,000</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
       </c>
       <c r="G22" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>288000</v>
-      </c>
-      <c r="I22" t="n">
-        <v>173520</v>
-      </c>
-      <c r="J22" t="n">
-        <v>-114480</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-39.75</v>
+        <v>13.6</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>300,000.00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>136,000.00</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>-164,000.00</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>-54.67</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1363,37 +1615,49 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>SYNEX</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44508</v>
-      </c>
-      <c r="E23" t="n">
-        <v>27000</v>
-      </c>
-      <c r="F23" t="n">
-        <v>38.8</v>
+        <v>44568</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>17,500</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
       </c>
       <c r="G23" t="n">
-        <v>28.25</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1047600</v>
-      </c>
-      <c r="I23" t="n">
-        <v>762750</v>
-      </c>
-      <c r="J23" t="n">
-        <v>-284849.9999999999</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-27.19072164948453</v>
+        <v>12.3</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>462,000.00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>215,250.00</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-246,750.00</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>-53.41</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1409,38 +1673,50 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>STA</t>
+          <t>TVO</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44362</v>
-      </c>
-      <c r="E24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F24" t="n">
-        <v>30</v>
+        <v>45602</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
       </c>
       <c r="G24" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="H24" t="n">
-        <v>300000</v>
-      </c>
-      <c r="I24" t="n">
-        <v>134000</v>
-      </c>
-      <c r="J24" t="n">
-        <v>-166000</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-55.33333333333334</v>
+        <v>25.75</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>99,600.00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>103,000.00</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>3,400.00</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1450,73 +1726,97 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SYNEX</t>
+          <t>CPF</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44568</v>
-      </c>
-      <c r="E25" t="n">
-        <v>17500</v>
-      </c>
-      <c r="F25" t="n">
-        <v>26.4</v>
+        <v>45890</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
       </c>
       <c r="G25" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="H25" t="n">
-        <v>462000</v>
-      </c>
-      <c r="I25" t="n">
-        <v>215250</v>
-      </c>
-      <c r="J25" t="n">
-        <v>-246750</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-53.40909090909091</v>
+        <v>23.7</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>118,500.00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>118,500.00</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TVO</t>
+          <t>IVL</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45602</v>
-      </c>
-      <c r="E26" t="n">
-        <v>8000</v>
-      </c>
-      <c r="F26" t="n">
-        <v>24</v>
+        <v>44802</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>7,200</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
       </c>
       <c r="G26" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="H26" t="n">
-        <v>192000</v>
-      </c>
-      <c r="I26" t="n">
-        <v>204000</v>
-      </c>
-      <c r="J26" t="n">
-        <v>12000</v>
-      </c>
-      <c r="K26" t="n">
-        <v>6.25</v>
+        <v>23.2</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>288,000.00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>167,040.00</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-120,960.00</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>-42.00</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1527,36 +1827,50 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CPF</t>
+          <t>ORI</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45890</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
+        <v>44658</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
       </c>
       <c r="G27" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+        <v>2.8</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>450,000.00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>140,000.00</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>-310,000.00</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>-68.89</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1566,37 +1880,49 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>JMT</t>
+          <t>PTTGC</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44952</v>
-      </c>
-      <c r="E28" t="n">
-        <v>4200</v>
-      </c>
-      <c r="F28" t="n">
-        <v>55.5</v>
+        <v>44272</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>64.75</t>
+        </is>
       </c>
       <c r="G28" t="n">
-        <v>13</v>
-      </c>
-      <c r="H28" t="n">
-        <v>233100</v>
-      </c>
-      <c r="I28" t="n">
-        <v>54600</v>
-      </c>
-      <c r="J28" t="n">
-        <v>-178500</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-76.57657657657657</v>
+        <v>27.75</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>388,500.00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>166,500.00</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-222,000.00</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>-57.14</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1607,37 +1933,49 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PTG</t>
+          <t>SCC</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45119</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3600</v>
-      </c>
-      <c r="F29" t="n">
-        <v>11.4</v>
+        <v>44459</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>405.00</t>
+        </is>
       </c>
       <c r="G29" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="H29" t="n">
-        <v>41040</v>
-      </c>
-      <c r="I29" t="n">
-        <v>30240</v>
-      </c>
-      <c r="J29" t="n">
-        <v>-10800</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-26.31578947368421</v>
+        <v>227</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>243,000.00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>136,200.00</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>-106,800.00</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>-43.95</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1648,37 +1986,49 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TOA</t>
+          <t>SINGER</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45175</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F30" t="n">
-        <v>26</v>
+        <v>44945</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>24.80</t>
+        </is>
       </c>
       <c r="G30" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>26000</v>
-      </c>
-      <c r="I30" t="n">
-        <v>15100</v>
-      </c>
-      <c r="J30" t="n">
-        <v>-10900</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-41.92307692307693</v>
+        <v>7.6</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>148,800.00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>45,600.00</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-103,200.00</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>-69.35</t>
+        </is>
       </c>
     </row>
   </sheetData>
